--- a/output3.xlsx
+++ b/output3.xlsx
@@ -7,7 +7,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tabla de datos dispersos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="tabla de datos no dispersos" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -379,7 +381,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,41 +1267,1358 @@
         <v>100</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Libro 26</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>5.03448275862069</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1.621841245625881</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10.3448275862069</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10</v>
+      </c>
+      <c r="L34" t="n">
+        <v>17.24137931034483</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20.68965517241379</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10</v>
+      </c>
+      <c r="J36" t="n">
+        <v>17.24137931034483</v>
+      </c>
+      <c r="K36" t="n">
+        <v>22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>37.93103448275862</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>36</v>
+      </c>
+      <c r="J37" t="n">
+        <v>62.06896551724138</v>
+      </c>
+      <c r="K37" t="n">
+        <v>58</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Libro 30</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>1.083624669450832</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" t="n">
+        <v>49.99999999999999</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>50</v>
+      </c>
+      <c r="K43" t="n">
+        <v>12</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="45">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A43"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C38:C43"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="D20:D25"/>
     <mergeCell ref="D26:D31"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D43"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E20:E25"/>
     <mergeCell ref="E26:E31"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E38:E43"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
     <mergeCell ref="F20:F25"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="F32:F37"/>
+    <mergeCell ref="F38:F43"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G19"/>
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G38:G43"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Libro</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Titulo del libro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Especialidad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Opinión del 1 al 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Libro 31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Libro 32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Libro 33</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Libro 34</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Libro 35</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Libro 36</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Libro 37</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Libro 38</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Libro 39</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Libro 40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Libro 41</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Libro 42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Libro 43</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Libro 44</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Libro 45</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Libro 46</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Libro 47</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Libro 48</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Libro 49</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Libro 50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Libro 51</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Libro 52</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Libro 53</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Libro 54</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Libro 55</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Libro 56</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Libro 57</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Libro 58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Libro 59</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Libro 60</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Libro 61</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Libro 62</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Libro 63</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Libro 64</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Libro 65</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Libro 66</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Libro 67</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Libro 68</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Libro 69</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Libro 70</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Libro 71</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/output3.xlsx
+++ b/output3.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,22 +472,22 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Administración y Contaduría</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Libro 42 </t>
+          <t>Libro 7</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>5.564102564102564</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.7802355903888978</v>
+        <v>0.7781887234103486</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
@@ -499,16 +499,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
     </row>
     <row r="3">
@@ -547,16 +547,16 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="5">
@@ -571,16 +571,16 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>17.94871794871795</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="K5" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L5" t="n">
-        <v>17.94871794871795</v>
+        <v>8.730158730158729</v>
       </c>
     </row>
     <row r="6">
@@ -595,16 +595,16 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>7.692307692307693</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="K6" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L6" t="n">
-        <v>25.64102564102564</v>
+        <v>20.63492063492063</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="J7" t="n">
-        <v>74.35897435897436</v>
+        <v>79.36507936507937</v>
       </c>
       <c r="K7" t="n">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="L7" t="n">
         <v>100</v>
@@ -635,17 +635,17 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Libro 18</t>
+          <t>Libro 5</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.727272727272728</v>
+        <v>5.324675324675325</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.6189243203857999</v>
+        <v>1.196943018930863</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>6</v>
@@ -657,16 +657,16 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.597402597402597</v>
       </c>
     </row>
     <row r="9">
@@ -705,16 +705,16 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.792207792207792</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>10.38961038961039</v>
       </c>
     </row>
     <row r="11">
@@ -729,16 +729,16 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>9.090909090909092</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>9.090909090909092</v>
+        <v>20.77922077922078</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +753,16 @@
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>9.090909090909092</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="K12" t="n">
         <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>18.18181818181818</v>
+        <v>31.16883116883117</v>
       </c>
     </row>
     <row r="13">
@@ -777,36 +777,40 @@
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="J13" t="n">
-        <v>81.81818181818183</v>
+        <v>68.83116883116884</v>
       </c>
       <c r="K13" t="n">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Comunicación Social</t>
+        </is>
+      </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
           <t>Libro 25</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>5.823529411764706</v>
+        <v>5.24074074074074</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.5166244188642394</v>
+        <v>0.9259536167545083</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>6</v>
@@ -839,16 +843,16 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.851851851851852</v>
       </c>
     </row>
     <row r="16">
@@ -863,16 +867,16 @@
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="17">
@@ -887,16 +891,16 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="L17" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -911,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>5.88235294117647</v>
+        <v>35.18518518518518</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="L18" t="n">
-        <v>11.76470588235294</v>
+        <v>51.85185185185185</v>
       </c>
     </row>
     <row r="19">
@@ -935,37 +939,33 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>88.23529411764706</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="K19" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Eje Transversal</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Libro 68</t>
+          <t>Libro 33</t>
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5.283236994219653</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>1.213110041412962</v>
+        <v>0.28232985128664</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>6</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.890173410404624</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.890173410404624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1001,16 +1001,16 @@
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.15606936416185</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.046242774566474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1025,16 +1025,16 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.936416184971097</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>10.98265895953757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1049,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.358381502890173</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>17.34104046242775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1073,16 +1073,16 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>19.07514450867052</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="K24" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>36.41618497109826</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="25">
@@ -1097,33 +1097,37 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>63.58381502890174</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="K25" t="n">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Derecho</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Libro 69</t>
+          <t>Libro 1</t>
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>5.682539682539683</v>
+        <v>5.408163265306122</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.8948850498428026</v>
+        <v>1.196891141239242</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>6</v>
@@ -1135,16 +1139,16 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.587301587301587</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.587301587301587</v>
+        <v>3.061224489795918</v>
       </c>
     </row>
     <row r="27">
@@ -1159,16 +1163,16 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="28">
@@ -1183,16 +1187,16 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>1.587301587301587</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L28" t="n">
-        <v>3.174603174603174</v>
+        <v>9.183673469387756</v>
       </c>
     </row>
     <row r="29">
@@ -1207,16 +1211,16 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>7.936507936507936</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L29" t="n">
-        <v>11.11111111111111</v>
+        <v>16.3265306122449</v>
       </c>
     </row>
     <row r="30">
@@ -1231,16 +1235,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>3.174603174603174</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="L30" t="n">
-        <v>14.28571428571428</v>
+        <v>26.53061224489796</v>
       </c>
     </row>
     <row r="31">
@@ -1255,37 +1259,33 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="J31" t="n">
-        <v>85.71428571428571</v>
+        <v>73.46938775510205</v>
       </c>
       <c r="K31" t="n">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="L31" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Psicología</t>
-        </is>
-      </c>
+      <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Libro 26</t>
+          <t>Libro 14</t>
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>5.03448275862069</v>
+        <v>5.756756756756757</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>1.621841245625881</v>
+        <v>0.8884465557859783</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>6</v>
@@ -1297,16 +1297,16 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.3448275862069</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="K32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>10.3448275862069</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="33">
@@ -1345,16 +1345,16 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.896551724137931</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1372,13 +1372,13 @@
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.448275862068965</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="K35" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>20.68965517241379</v>
+        <v>5.405405405405405</v>
       </c>
     </row>
     <row r="36">
@@ -1393,16 +1393,16 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>17.24137931034483</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="K36" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>37.93103448275862</v>
+        <v>10.81081081081081</v>
       </c>
     </row>
     <row r="37">
@@ -1417,36 +1417,40 @@
         <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="J37" t="n">
-        <v>62.06896551724138</v>
+        <v>89.18918918918919</v>
       </c>
       <c r="K37" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="L37" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Economía</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Libro 30</t>
+          <t xml:space="preserve">Libro 42 </t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>5.083333333333333</v>
+        <v>5.564102564102564</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>1.083624669450832</v>
+        <v>0.7802355903888978</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>6</v>
@@ -1503,16 +1507,16 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,16 +1531,16 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J41" t="n">
-        <v>25</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L41" t="n">
-        <v>33.33333333333333</v>
+        <v>17.94871794871795</v>
       </c>
     </row>
     <row r="42">
@@ -1551,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J42" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L42" t="n">
-        <v>49.99999999999999</v>
+        <v>25.64102564102564</v>
       </c>
     </row>
     <row r="43">
@@ -1575,23 +1579,2381 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>74.35897435897436</v>
       </c>
       <c r="K43" t="n">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="L43" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Libro 18</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>5.727272727272728</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.6189243203857999</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12</v>
+      </c>
+      <c r="L47" t="n">
+        <v>9.090909090909092</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K48" t="n">
+        <v>24</v>
+      </c>
+      <c r="L48" t="n">
+        <v>18.18181818181818</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>108</v>
+      </c>
+      <c r="J49" t="n">
+        <v>81.81818181818183</v>
+      </c>
+      <c r="K49" t="n">
+        <v>132</v>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Libro 25</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>5.823529411764706</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.5166244188642394</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="K52" t="n">
+        <v>8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60</v>
+      </c>
+      <c r="J53" t="n">
+        <v>88.23529411764706</v>
+      </c>
+      <c r="K53" t="n">
+        <v>68</v>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Educación</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Libro 10</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>5.861111111111111</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.4836934064302512</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.555555555555555</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>66</v>
+      </c>
+      <c r="J59" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="K59" t="n">
+        <v>72</v>
+      </c>
+      <c r="L59" t="n">
+        <v>99.99999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Libro 23</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>5.925925925925926</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.2668802563418119</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.407407407407407</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27</v>
+      </c>
+      <c r="L65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Eje Transversal</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Libro 68</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>5.283236994219653</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>1.213110041412962</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.890173410404624</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.890173410404624</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.15606936416185</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.046242774566474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.936416184971097</v>
+      </c>
+      <c r="K68" t="n">
+        <v>19</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10.98265895953757</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.358381502890173</v>
+      </c>
+      <c r="K69" t="n">
+        <v>30</v>
+      </c>
+      <c r="L69" t="n">
+        <v>17.34104046242775</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.07514450867052</v>
+      </c>
+      <c r="K70" t="n">
+        <v>63</v>
+      </c>
+      <c r="L70" t="n">
+        <v>36.41618497109826</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>110</v>
+      </c>
+      <c r="J71" t="n">
+        <v>63.58381502890174</v>
+      </c>
+      <c r="K71" t="n">
+        <v>173</v>
+      </c>
+      <c r="L71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Libro 69</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>5.682539682539683</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0.8948850498428026</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.587301587301587</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.174603174603174</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7.936507936507936</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7</v>
+      </c>
+      <c r="L75" t="n">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.174603174603174</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>54</v>
+      </c>
+      <c r="J77" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="K77" t="n">
+        <v>63</v>
+      </c>
+      <c r="L77" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Libro 16</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>5.548387096774194</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.8381580761249496</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="K80" t="n">
+        <v>7</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>28</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12.90322580645161</v>
+      </c>
+      <c r="K81" t="n">
+        <v>35</v>
+      </c>
+      <c r="L81" t="n">
+        <v>16.12903225806452</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>21</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="K82" t="n">
+        <v>56</v>
+      </c>
+      <c r="L82" t="n">
+        <v>25.80645161290322</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>161</v>
+      </c>
+      <c r="J83" t="n">
+        <v>74.19354838709677</v>
+      </c>
+      <c r="K83" t="n">
+        <v>217</v>
+      </c>
+      <c r="L83" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Libro 2</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>5.212962962962963</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>1.173751100162852</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+      <c r="J86" t="n">
+        <v>11.57407407407407</v>
+      </c>
+      <c r="K86" t="n">
+        <v>31</v>
+      </c>
+      <c r="L86" t="n">
+        <v>14.35185185185185</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8.796296296296296</v>
+      </c>
+      <c r="K87" t="n">
+        <v>50</v>
+      </c>
+      <c r="L87" t="n">
+        <v>23.14814814814815</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>15.27777777777778</v>
+      </c>
+      <c r="K88" t="n">
+        <v>83</v>
+      </c>
+      <c r="L88" t="n">
+        <v>38.42592592592592</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>133</v>
+      </c>
+      <c r="J89" t="n">
+        <v>61.57407407407407</v>
+      </c>
+      <c r="K89" t="n">
+        <v>216</v>
+      </c>
+      <c r="L89" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Ingeniería en Telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Libro 22</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>5.295774647887324</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>1.014305676595611</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.408450704225352</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.408450704225352</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4.225352112676056</v>
+      </c>
+      <c r="K92" t="n">
+        <v>16</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5.633802816901408</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>40</v>
+      </c>
+      <c r="J93" t="n">
+        <v>14.08450704225352</v>
+      </c>
+      <c r="K93" t="n">
+        <v>56</v>
+      </c>
+      <c r="L93" t="n">
+        <v>19.71830985915493</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>64</v>
+      </c>
+      <c r="J94" t="n">
+        <v>22.53521126760564</v>
+      </c>
+      <c r="K94" t="n">
+        <v>120</v>
+      </c>
+      <c r="L94" t="n">
+        <v>42.25352112676056</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>164</v>
+      </c>
+      <c r="J95" t="n">
+        <v>57.74647887323944</v>
+      </c>
+      <c r="K95" t="n">
+        <v>284</v>
+      </c>
+      <c r="L95" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Libro 26</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>5.03448275862069</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>1.621841245625881</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6</v>
+      </c>
+      <c r="L96" t="n">
+        <v>10.3448275862069</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="K98" t="n">
+        <v>10</v>
+      </c>
+      <c r="L98" t="n">
+        <v>17.24137931034483</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12</v>
+      </c>
+      <c r="L99" t="n">
+        <v>20.68965517241379</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>17.24137931034483</v>
+      </c>
+      <c r="K100" t="n">
+        <v>22</v>
+      </c>
+      <c r="L100" t="n">
+        <v>37.93103448275862</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="n"/>
+      <c r="E101" s="1" t="n"/>
+      <c r="F101" s="1" t="n"/>
+      <c r="G101" s="1" t="n"/>
+      <c r="H101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>62.06896551724138</v>
+      </c>
+      <c r="K101" t="n">
+        <v>58</v>
+      </c>
+      <c r="L101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Libro 30</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>1.083624669450832</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="n"/>
+      <c r="E103" s="1" t="n"/>
+      <c r="F103" s="1" t="n"/>
+      <c r="G103" s="1" t="n"/>
+      <c r="H103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="n"/>
+      <c r="E104" s="1" t="n"/>
+      <c r="F104" s="1" t="n"/>
+      <c r="G104" s="1" t="n"/>
+      <c r="H104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="n"/>
+      <c r="E105" s="1" t="n"/>
+      <c r="F105" s="1" t="n"/>
+      <c r="G105" s="1" t="n"/>
+      <c r="H105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>25</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="n"/>
+      <c r="E106" s="1" t="n"/>
+      <c r="F106" s="1" t="n"/>
+      <c r="G106" s="1" t="n"/>
+      <c r="H106" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6</v>
+      </c>
+      <c r="L106" t="n">
+        <v>49.99999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="1" t="n"/>
+      <c r="F107" s="1" t="n"/>
+      <c r="G107" s="1" t="n"/>
+      <c r="H107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>50</v>
+      </c>
+      <c r="K107" t="n">
+        <v>12</v>
+      </c>
+      <c r="L107" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Relaciones Industriales</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Libro 56</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>5.215686274509804</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>1.35432896672366</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="n"/>
+      <c r="E109" s="1" t="n"/>
+      <c r="F109" s="1" t="n"/>
+      <c r="G109" s="1" t="n"/>
+      <c r="H109" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="n"/>
+      <c r="E110" s="1" t="n"/>
+      <c r="F110" s="1" t="n"/>
+      <c r="G110" s="1" t="n"/>
+      <c r="H110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9.80392156862745</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="n"/>
+      <c r="D111" s="1" t="n"/>
+      <c r="E111" s="1" t="n"/>
+      <c r="F111" s="1" t="n"/>
+      <c r="G111" s="1" t="n"/>
+      <c r="H111" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12</v>
+      </c>
+      <c r="J111" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="K111" t="n">
+        <v>22</v>
+      </c>
+      <c r="L111" t="n">
+        <v>21.56862745098039</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="n"/>
+      <c r="E112" s="1" t="n"/>
+      <c r="F112" s="1" t="n"/>
+      <c r="G112" s="1" t="n"/>
+      <c r="H112" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>14</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13.72549019607843</v>
+      </c>
+      <c r="K112" t="n">
+        <v>36</v>
+      </c>
+      <c r="L112" t="n">
+        <v>35.29411764705883</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="1" t="n"/>
+      <c r="F113" s="1" t="n"/>
+      <c r="G113" s="1" t="n"/>
+      <c r="H113" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I113" t="n">
+        <v>66</v>
+      </c>
+      <c r="J113" t="n">
+        <v>64.70588235294117</v>
+      </c>
+      <c r="K113" t="n">
+        <v>102</v>
+      </c>
+      <c r="L113" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>Libro 11</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>5.772727272727272</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>0.6047731215432993</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="n"/>
+      <c r="E115" s="1" t="n"/>
+      <c r="F115" s="1" t="n"/>
+      <c r="G115" s="1" t="n"/>
+      <c r="H115" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="n"/>
+      <c r="E116" s="1" t="n"/>
+      <c r="F116" s="1" t="n"/>
+      <c r="G116" s="1" t="n"/>
+      <c r="H116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="n"/>
+      <c r="E117" s="1" t="n"/>
+      <c r="F117" s="1" t="n"/>
+      <c r="G117" s="1" t="n"/>
+      <c r="H117" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4</v>
+      </c>
+      <c r="L117" t="n">
+        <v>9.090909090909092</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="n"/>
+      <c r="E118" s="1" t="n"/>
+      <c r="F118" s="1" t="n"/>
+      <c r="G118" s="1" t="n"/>
+      <c r="H118" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="K118" t="n">
+        <v>6</v>
+      </c>
+      <c r="L118" t="n">
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="n"/>
+      <c r="E119" s="1" t="n"/>
+      <c r="F119" s="1" t="n"/>
+      <c r="G119" s="1" t="n"/>
+      <c r="H119" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I119" t="n">
+        <v>38</v>
+      </c>
+      <c r="J119" t="n">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="K119" t="n">
+        <v>44</v>
+      </c>
+      <c r="L119" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>ingeniería Industrial</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>Libro 38</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>5.809917355371901</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>0.5513325929022304</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="n"/>
+      <c r="E121" s="1" t="n"/>
+      <c r="F121" s="1" t="n"/>
+      <c r="G121" s="1" t="n"/>
+      <c r="H121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="n"/>
+      <c r="E122" s="1" t="n"/>
+      <c r="F122" s="1" t="n"/>
+      <c r="G122" s="1" t="n"/>
+      <c r="H122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.652892561983471</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.652892561983471</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="n"/>
+      <c r="E123" s="1" t="n"/>
+      <c r="F123" s="1" t="n"/>
+      <c r="G123" s="1" t="n"/>
+      <c r="H123" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.479338842975207</v>
+      </c>
+      <c r="K123" t="n">
+        <v>10</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4.132231404958678</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n"/>
+      <c r="E124" s="1" t="n"/>
+      <c r="F124" s="1" t="n"/>
+      <c r="G124" s="1" t="n"/>
+      <c r="H124" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>22</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K124" t="n">
+        <v>32</v>
+      </c>
+      <c r="L124" t="n">
+        <v>13.22314049586777</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
+      <c r="E125" s="1" t="n"/>
+      <c r="F125" s="1" t="n"/>
+      <c r="G125" s="1" t="n"/>
+      <c r="H125" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I125" t="n">
+        <v>210</v>
+      </c>
+      <c r="J125" t="n">
+        <v>86.77685950413223</v>
+      </c>
+      <c r="K125" t="n">
+        <v>242</v>
+      </c>
+      <c r="L125" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>Libro 35</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>1.586400537905439</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
+      <c r="D127" s="1" t="n"/>
+      <c r="E127" s="1" t="n"/>
+      <c r="F127" s="1" t="n"/>
+      <c r="G127" s="1" t="n"/>
+      <c r="H127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="n"/>
+      <c r="E128" s="1" t="n"/>
+      <c r="F128" s="1" t="n"/>
+      <c r="G128" s="1" t="n"/>
+      <c r="H128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="n"/>
+      <c r="E129" s="1" t="n"/>
+      <c r="F129" s="1" t="n"/>
+      <c r="G129" s="1" t="n"/>
+      <c r="H129" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="n"/>
+      <c r="E130" s="1" t="n"/>
+      <c r="F130" s="1" t="n"/>
+      <c r="G130" s="1" t="n"/>
+      <c r="H130" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>50</v>
+      </c>
+      <c r="K130" t="n">
+        <v>10</v>
+      </c>
+      <c r="L130" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="n"/>
+      <c r="E131" s="1" t="n"/>
+      <c r="F131" s="1" t="n"/>
+      <c r="G131" s="1" t="n"/>
+      <c r="H131" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>16</v>
+      </c>
+      <c r="L131" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:A43"/>
+  <mergeCells count="143">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="A108:A119"/>
+    <mergeCell ref="A120:A131"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
@@ -1599,6 +3961,21 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B131"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C19"/>
@@ -1606,6 +3983,21 @@
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C126:C131"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
@@ -1613,6 +4005,21 @@
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="D32:D37"/>
     <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="D96:D101"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D120:D125"/>
+    <mergeCell ref="D126:D131"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
@@ -1620,6 +4027,21 @@
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="E32:E37"/>
     <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="E72:E77"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="E84:E89"/>
+    <mergeCell ref="E90:E95"/>
+    <mergeCell ref="E96:E101"/>
+    <mergeCell ref="E102:E107"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="E114:E119"/>
+    <mergeCell ref="E120:E125"/>
+    <mergeCell ref="E126:E131"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
@@ -1627,6 +4049,21 @@
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="F32:F37"/>
     <mergeCell ref="F38:F43"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="F72:F77"/>
+    <mergeCell ref="F78:F83"/>
+    <mergeCell ref="F84:F89"/>
+    <mergeCell ref="F90:F95"/>
+    <mergeCell ref="F96:F101"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="F126:F131"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G19"/>
@@ -1634,6 +4071,21 @@
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="G32:G37"/>
     <mergeCell ref="G38:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="G72:G77"/>
+    <mergeCell ref="G78:G83"/>
+    <mergeCell ref="G84:G89"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="G96:G101"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="G108:G113"/>
+    <mergeCell ref="G114:G119"/>
+    <mergeCell ref="G120:G125"/>
+    <mergeCell ref="G126:G131"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1645,7 +4097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,57 +4129,57 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>634</v>
+        <v>565</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Libro 31</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Psicologíaología Social II Práctica.</t>
+          <t>Ética Profesional.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Psicología</t>
+          <t>Administración y Contaduría</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>635</v>
+        <v>1307</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Libro 32</t>
+          <t>Libro 34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Psicologíaología Social II Práctica.</t>
+          <t>Ingeniería Económica.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Psicología</t>
+          <t>Ingeniería en Telecomunicaciones</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>636</v>
+        <v>2032</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Libro 33</t>
+          <t>Libro 31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1746,11 +4198,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>637</v>
+        <v>2033</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Libro 34</t>
+          <t>Libro 32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1769,11 +4221,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>638</v>
+        <v>2034</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Libro 35</t>
+          <t>Libro 33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1792,11 +4244,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>639</v>
+        <v>2035</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Libro 36</t>
+          <t>Libro 34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1815,11 +4267,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>640</v>
+        <v>2036</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Libro 37</t>
+          <t>Libro 35</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1838,11 +4290,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>641</v>
+        <v>2037</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Libro 38</t>
+          <t>Libro 36</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1861,11 +4313,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>642</v>
+        <v>2038</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Libro 39</t>
+          <t>Libro 37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1884,11 +4336,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>643</v>
+        <v>2039</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Libro 40</t>
+          <t>Libro 38</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1907,11 +4359,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>644</v>
+        <v>2040</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Libro 41</t>
+          <t>Libro 39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1930,11 +4382,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>645</v>
+        <v>2041</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Libro 42</t>
+          <t>Libro 40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1953,11 +4405,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>646</v>
+        <v>2042</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Libro 43</t>
+          <t>Libro 41</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1976,11 +4428,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>647</v>
+        <v>2043</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Libro 44</t>
+          <t>Libro 42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1999,11 +4451,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>648</v>
+        <v>2044</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Libro 45</t>
+          <t>Libro 43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2022,11 +4474,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>649</v>
+        <v>2045</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Libro 46</t>
+          <t>Libro 44</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2045,11 +4497,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>650</v>
+        <v>2046</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Libro 47</t>
+          <t>Libro 45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2068,11 +4520,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>651</v>
+        <v>2047</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Libro 48</t>
+          <t>Libro 46</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2091,11 +4543,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>652</v>
+        <v>2048</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Libro 49</t>
+          <t>Libro 47</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2114,11 +4566,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>653</v>
+        <v>2049</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Libro 50</t>
+          <t>Libro 48</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2137,11 +4589,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>654</v>
+        <v>2050</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Libro 51</t>
+          <t>Libro 49</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2160,11 +4612,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>655</v>
+        <v>2051</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Libro 52</t>
+          <t>Libro 50</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2183,11 +4635,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>656</v>
+        <v>2052</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Libro 53</t>
+          <t>Libro 51</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2206,11 +4658,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>657</v>
+        <v>2053</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Libro 54</t>
+          <t>Libro 52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2229,11 +4681,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>658</v>
+        <v>2054</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Libro 55</t>
+          <t>Libro 53</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2252,11 +4704,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>659</v>
+        <v>2055</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Libro 56</t>
+          <t>Libro 54</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2275,11 +4727,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>660</v>
+        <v>2056</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Libro 57</t>
+          <t>Libro 55</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2298,11 +4750,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>661</v>
+        <v>2057</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Libro 58</t>
+          <t>Libro 56</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2321,11 +4773,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>662</v>
+        <v>2058</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Libro 59</t>
+          <t>Libro 57</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2344,11 +4796,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>663</v>
+        <v>2059</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Libro 60</t>
+          <t>Libro 58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2367,11 +4819,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>664</v>
+        <v>2060</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Libro 61</t>
+          <t>Libro 59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2390,11 +4842,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>665</v>
+        <v>2061</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Libro 62</t>
+          <t>Libro 60</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2413,11 +4865,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>666</v>
+        <v>2062</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Libro 63</t>
+          <t>Libro 61</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2436,11 +4888,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>667</v>
+        <v>2063</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Libro 64</t>
+          <t>Libro 62</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2459,11 +4911,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>668</v>
+        <v>2064</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Libro 65</t>
+          <t>Libro 63</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2482,11 +4934,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>669</v>
+        <v>2065</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Libro 66</t>
+          <t>Libro 64</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2505,11 +4957,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>670</v>
+        <v>2066</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Libro 67</t>
+          <t>Libro 65</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2528,11 +4980,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>671</v>
+        <v>2067</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Libro 68</t>
+          <t>Libro 66</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2551,11 +5003,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>672</v>
+        <v>2068</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Libro 69</t>
+          <t>Libro 67</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2574,11 +5026,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>673</v>
+        <v>2069</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Libro 70</t>
+          <t>Libro 68</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2597,24 +5049,70 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>674</v>
+        <v>2070</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Libro 69</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Libro 70</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Psicologíaología Social II Práctica.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Libro 71</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Psicologíaología Social II Práctica.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Psicología</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="E44" t="n">
         <v>3</v>
       </c>
     </row>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>5.333333333333333</v>
+        <v>5.324675324675325</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1.191601200030203</v>
+        <v>1.196943018930863</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.564102564102564</v>
+        <v>2.597402597402597</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.564102564102564</v>
+        <v>2.597402597402597</v>
       </c>
     </row>
     <row r="9">
@@ -708,13 +708,13 @@
         <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>7.692307692307693</v>
+        <v>7.792207792207792</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>10.25641025641026</v>
+        <v>10.38961038961039</v>
       </c>
     </row>
     <row r="11">
@@ -732,13 +732,13 @@
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>10.25641025641026</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="K11" t="n">
         <v>16</v>
       </c>
       <c r="L11" t="n">
-        <v>20.51282051282051</v>
+        <v>20.77922077922078</v>
       </c>
     </row>
     <row r="12">
@@ -756,13 +756,13 @@
         <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>10.25641025641026</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="K12" t="n">
         <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>30.76923076923077</v>
+        <v>31.16883116883117</v>
       </c>
     </row>
     <row r="13">
@@ -777,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" t="n">
-        <v>69.23076923076923</v>
+        <v>68.83116883116884</v>
       </c>
       <c r="K13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" t="n">
         <v>100</v>
@@ -792,25 +792,25 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Economía</t>
+          <t>Comunicación Social</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Libro 42 </t>
+          <t>Libro 25</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>5.564102564102564</v>
+        <v>5.24074074074074</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.7802355903888978</v>
+        <v>0.9259536167545083</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>6</v>
@@ -843,16 +843,16 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.851851851851852</v>
       </c>
     </row>
     <row r="16">
@@ -867,16 +867,16 @@
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="17">
@@ -891,16 +891,16 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>17.94871794871795</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K17" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L17" t="n">
-        <v>17.94871794871795</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -915,16 +915,16 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>7.692307692307693</v>
+        <v>35.18518518518518</v>
       </c>
       <c r="K18" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L18" t="n">
-        <v>25.64102564102564</v>
+        <v>51.85185185185185</v>
       </c>
     </row>
     <row r="19">
@@ -939,13 +939,13 @@
         <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="J19" t="n">
-        <v>74.35897435897436</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="K19" t="n">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L19" t="n">
         <v>100</v>
@@ -955,17 +955,17 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Libro 18</t>
+          <t>Libro 33</t>
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>5.727272727272728</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.6189243203857999</v>
+        <v>0.28232985128664</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>6</v>
@@ -1049,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1073,16 +1073,16 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>9.090909090909092</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="K24" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>18.18181818181818</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="25">
@@ -1097,33 +1097,37 @@
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81818181818183</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="K25" t="n">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="L25" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Derecho</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Libro 25</t>
+          <t>Libro 1</t>
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>5.823529411764706</v>
+        <v>5.408163265306122</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.5166244188642394</v>
+        <v>1.196891141239242</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>6</v>
@@ -1135,16 +1139,16 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.061224489795918</v>
       </c>
     </row>
     <row r="27">
@@ -1159,16 +1163,16 @@
         <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>4.081632653061225</v>
       </c>
     </row>
     <row r="28">
@@ -1183,16 +1187,16 @@
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>9.183673469387756</v>
       </c>
     </row>
     <row r="29">
@@ -1207,16 +1211,16 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>5.88235294117647</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L29" t="n">
-        <v>5.88235294117647</v>
+        <v>16.3265306122449</v>
       </c>
     </row>
     <row r="30">
@@ -1231,16 +1235,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>5.88235294117647</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="L30" t="n">
-        <v>11.76470588235294</v>
+        <v>26.53061224489796</v>
       </c>
     </row>
     <row r="31">
@@ -1255,37 +1259,33 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J31" t="n">
-        <v>88.23529411764706</v>
+        <v>73.46938775510205</v>
       </c>
       <c r="K31" t="n">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="L31" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Eje Transversal</t>
-        </is>
-      </c>
+      <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Libro 68</t>
+          <t>Libro 14</t>
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>5.283236994219653</v>
+        <v>5.756756756756757</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>1.213110041412962</v>
+        <v>0.8884465557859783</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>6</v>
@@ -1297,16 +1297,16 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.890173410404624</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>2.890173410404624</v>
+        <v>2.702702702702703</v>
       </c>
     </row>
     <row r="33">
@@ -1321,16 +1321,16 @@
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.15606936416185</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>4.046242774566474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1345,16 +1345,16 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.936416184971097</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>10.98265895953757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1369,16 +1369,16 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>6.358381502890173</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="K35" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>17.34104046242775</v>
+        <v>5.405405405405405</v>
       </c>
     </row>
     <row r="36">
@@ -1393,16 +1393,16 @@
         <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>19.07514450867052</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="K36" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>36.41618497109826</v>
+        <v>10.81081081081081</v>
       </c>
     </row>
     <row r="37">
@@ -1417,33 +1417,37 @@
         <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="J37" t="n">
-        <v>63.58381502890174</v>
+        <v>89.18918918918919</v>
       </c>
       <c r="K37" t="n">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="L37" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Economía</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Libro 69</t>
+          <t xml:space="preserve">Libro 42 </t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>5.682539682539683</v>
+        <v>5.564102564102564</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.8948850498428026</v>
+        <v>0.7802355903888978</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>6</v>
@@ -1455,16 +1459,16 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.587301587301587</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.587301587301587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1503,16 +1507,16 @@
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.587301587301587</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3.174603174603174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1527,16 +1531,16 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J41" t="n">
-        <v>7.936507936507936</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L41" t="n">
-        <v>11.11111111111111</v>
+        <v>17.94871794871795</v>
       </c>
     </row>
     <row r="42">
@@ -1551,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J42" t="n">
-        <v>3.174603174603174</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K42" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L42" t="n">
-        <v>14.28571428571428</v>
+        <v>25.64102564102564</v>
       </c>
     </row>
     <row r="43">
@@ -1575,37 +1579,33 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="J43" t="n">
-        <v>85.71428571428571</v>
+        <v>74.35897435897436</v>
       </c>
       <c r="K43" t="n">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="L43" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Ingeniería en Telecomunicaciones</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Libro 22</t>
+          <t>Libro 18</t>
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>5.295774647887324</v>
+        <v>5.727272727272728</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>1.014305676595611</v>
+        <v>0.6189243203857999</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>6</v>
@@ -1617,16 +1617,16 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.408450704225352</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1.408450704225352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1665,16 +1665,16 @@
         <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.225352112676056</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.633802816901408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1689,16 +1689,16 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
-        <v>14.08450704225352</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="K47" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="L47" t="n">
-        <v>19.71830985915493</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="48">
@@ -1713,16 +1713,16 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J48" t="n">
-        <v>22.53521126760564</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="K48" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="L48" t="n">
-        <v>42.25352112676056</v>
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="49">
@@ -1737,37 +1737,33 @@
         <v>6</v>
       </c>
       <c r="I49" t="n">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="J49" t="n">
-        <v>57.74647887323944</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="K49" t="n">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="L49" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Psicología</t>
-        </is>
-      </c>
+      <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Libro 26</t>
+          <t>Libro 25</t>
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>5.03448275862069</v>
+        <v>5.823529411764706</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>1.621841245625881</v>
+        <v>0.5166244188642394</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>6</v>
@@ -1779,16 +1775,16 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1800,19 +1796,19 @@
       <c r="F51" s="1" t="n"/>
       <c r="G51" s="1" t="n"/>
       <c r="H51" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
     </row>
     <row r="52">
@@ -1824,19 +1820,19 @@
       <c r="F52" s="1" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52" t="n">
         <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>6.896551724137931</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>17.24137931034483</v>
+        <v>11.76470588235294</v>
       </c>
     </row>
     <row r="53">
@@ -1848,43 +1844,61 @@
       <c r="F53" s="1" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="J53" t="n">
-        <v>3.448275862068965</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="K53" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="L53" t="n">
-        <v>20.68965517241379</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
-      <c r="D54" s="1" t="n"/>
-      <c r="E54" s="1" t="n"/>
-      <c r="F54" s="1" t="n"/>
-      <c r="G54" s="1" t="n"/>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Educación</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Libro 10</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>5.861111111111111</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.4836934064302512</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="H54" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>37.93103448275862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1896,45 +1910,31 @@
       <c r="F55" s="1" t="n"/>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>62.06896551724138</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>Libro 30</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>5.083333333333333</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>1.083624669450832</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
       <c r="H56" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -1958,19 +1958,19 @@
       <c r="F57" s="1" t="n"/>
       <c r="G57" s="1" t="n"/>
       <c r="H57" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="58">
@@ -1982,16 +1982,16 @@
       <c r="F58" s="1" t="n"/>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>8.333333333333332</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L58" t="n">
         <v>8.333333333333332</v>
@@ -2006,43 +2006,57 @@
       <c r="F59" s="1" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="J59" t="n">
-        <v>25</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="L59" t="n">
-        <v>33.33333333333333</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="n"/>
-      <c r="E60" s="1" t="n"/>
-      <c r="F60" s="1" t="n"/>
-      <c r="G60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Libro 23</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>5.925925925925926</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.2668802563418119</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="H60" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>49.99999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2054,28 +2068,1892 @@
       <c r="F61" s="1" t="n"/>
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.407407407407407</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>92.5925925925926</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27</v>
+      </c>
+      <c r="L65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Eje Transversal</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Libro 68</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>5.283236994219653</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>1.213110041412962</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.890173410404624</v>
+      </c>
+      <c r="K66" t="n">
+        <v>5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.890173410404624</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.15606936416185</v>
+      </c>
+      <c r="K67" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.046242774566474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.936416184971097</v>
+      </c>
+      <c r="K68" t="n">
+        <v>19</v>
+      </c>
+      <c r="L68" t="n">
+        <v>10.98265895953757</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.358381502890173</v>
+      </c>
+      <c r="K69" t="n">
+        <v>30</v>
+      </c>
+      <c r="L69" t="n">
+        <v>17.34104046242775</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.07514450867052</v>
+      </c>
+      <c r="K70" t="n">
+        <v>63</v>
+      </c>
+      <c r="L70" t="n">
+        <v>36.41618497109826</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>110</v>
+      </c>
+      <c r="J71" t="n">
+        <v>63.58381502890174</v>
+      </c>
+      <c r="K71" t="n">
+        <v>173</v>
+      </c>
+      <c r="L71" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Libro 69</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>5.682539682539683</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0.8948850498428026</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.587301587301587</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.174603174603174</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7.936507936507936</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7</v>
+      </c>
+      <c r="L75" t="n">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.174603174603174</v>
+      </c>
+      <c r="K76" t="n">
+        <v>9</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>54</v>
+      </c>
+      <c r="J77" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="K77" t="n">
+        <v>63</v>
+      </c>
+      <c r="L77" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Libro 16</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>5.548387096774194</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.8381580761249496</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="K80" t="n">
+        <v>7</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.225806451612903</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>28</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12.90322580645161</v>
+      </c>
+      <c r="K81" t="n">
+        <v>35</v>
+      </c>
+      <c r="L81" t="n">
+        <v>16.12903225806452</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>21</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="K82" t="n">
+        <v>56</v>
+      </c>
+      <c r="L82" t="n">
+        <v>25.80645161290322</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>161</v>
+      </c>
+      <c r="J83" t="n">
+        <v>74.19354838709677</v>
+      </c>
+      <c r="K83" t="n">
+        <v>217</v>
+      </c>
+      <c r="L83" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Libro 2</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>5.212962962962963</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>1.173751100162852</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2.777777777777778</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+      <c r="J86" t="n">
+        <v>11.57407407407407</v>
+      </c>
+      <c r="K86" t="n">
+        <v>31</v>
+      </c>
+      <c r="L86" t="n">
+        <v>14.35185185185185</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19</v>
+      </c>
+      <c r="J87" t="n">
+        <v>8.796296296296296</v>
+      </c>
+      <c r="K87" t="n">
         <v>50</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L87" t="n">
+        <v>23.14814814814815</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>15.27777777777778</v>
+      </c>
+      <c r="K88" t="n">
+        <v>83</v>
+      </c>
+      <c r="L88" t="n">
+        <v>38.42592592592592</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I89" t="n">
+        <v>133</v>
+      </c>
+      <c r="J89" t="n">
+        <v>61.57407407407407</v>
+      </c>
+      <c r="K89" t="n">
+        <v>216</v>
+      </c>
+      <c r="L89" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Ingeniería en Telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Libro 22</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>5.295774647887324</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>1.014305676595611</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.408450704225352</v>
+      </c>
+      <c r="K90" t="n">
+        <v>4</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.408450704225352</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I92" t="n">
         <v>12</v>
       </c>
-      <c r="L61" t="n">
+      <c r="J92" t="n">
+        <v>4.225352112676056</v>
+      </c>
+      <c r="K92" t="n">
+        <v>16</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5.633802816901408</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I93" t="n">
+        <v>40</v>
+      </c>
+      <c r="J93" t="n">
+        <v>14.08450704225352</v>
+      </c>
+      <c r="K93" t="n">
+        <v>56</v>
+      </c>
+      <c r="L93" t="n">
+        <v>19.71830985915493</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>64</v>
+      </c>
+      <c r="J94" t="n">
+        <v>22.53521126760564</v>
+      </c>
+      <c r="K94" t="n">
+        <v>120</v>
+      </c>
+      <c r="L94" t="n">
+        <v>42.25352112676056</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>164</v>
+      </c>
+      <c r="J95" t="n">
+        <v>57.74647887323944</v>
+      </c>
+      <c r="K95" t="n">
+        <v>284</v>
+      </c>
+      <c r="L95" t="n">
         <v>100</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Libro 26</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>5.03448275862069</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>1.621841245625881</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" t="n">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6</v>
+      </c>
+      <c r="L96" t="n">
+        <v>10.3448275862069</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="K98" t="n">
+        <v>10</v>
+      </c>
+      <c r="L98" t="n">
+        <v>17.24137931034483</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12</v>
+      </c>
+      <c r="L99" t="n">
+        <v>20.68965517241379</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>17.24137931034483</v>
+      </c>
+      <c r="K100" t="n">
+        <v>22</v>
+      </c>
+      <c r="L100" t="n">
+        <v>37.93103448275862</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="n"/>
+      <c r="E101" s="1" t="n"/>
+      <c r="F101" s="1" t="n"/>
+      <c r="G101" s="1" t="n"/>
+      <c r="H101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>62.06896551724138</v>
+      </c>
+      <c r="K101" t="n">
+        <v>58</v>
+      </c>
+      <c r="L101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Libro 30</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>5.083333333333333</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>1.083624669450832</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="n"/>
+      <c r="E103" s="1" t="n"/>
+      <c r="F103" s="1" t="n"/>
+      <c r="G103" s="1" t="n"/>
+      <c r="H103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="n"/>
+      <c r="E104" s="1" t="n"/>
+      <c r="F104" s="1" t="n"/>
+      <c r="G104" s="1" t="n"/>
+      <c r="H104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>8.333333333333332</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="n"/>
+      <c r="E105" s="1" t="n"/>
+      <c r="F105" s="1" t="n"/>
+      <c r="G105" s="1" t="n"/>
+      <c r="H105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>25</v>
+      </c>
+      <c r="K105" t="n">
+        <v>4</v>
+      </c>
+      <c r="L105" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="n"/>
+      <c r="E106" s="1" t="n"/>
+      <c r="F106" s="1" t="n"/>
+      <c r="G106" s="1" t="n"/>
+      <c r="H106" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6</v>
+      </c>
+      <c r="L106" t="n">
+        <v>49.99999999999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="1" t="n"/>
+      <c r="F107" s="1" t="n"/>
+      <c r="G107" s="1" t="n"/>
+      <c r="H107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J107" t="n">
+        <v>50</v>
+      </c>
+      <c r="K107" t="n">
+        <v>12</v>
+      </c>
+      <c r="L107" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Relaciones Industriales</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Libro 56</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>5.215686274509804</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>1.35432896672366</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" t="n">
+        <v>5.88235294117647</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="n"/>
+      <c r="E109" s="1" t="n"/>
+      <c r="F109" s="1" t="n"/>
+      <c r="G109" s="1" t="n"/>
+      <c r="H109" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="n"/>
+      <c r="E110" s="1" t="n"/>
+      <c r="F110" s="1" t="n"/>
+      <c r="G110" s="1" t="n"/>
+      <c r="H110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.92156862745098</v>
+      </c>
+      <c r="K110" t="n">
+        <v>10</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9.80392156862745</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="n"/>
+      <c r="D111" s="1" t="n"/>
+      <c r="E111" s="1" t="n"/>
+      <c r="F111" s="1" t="n"/>
+      <c r="G111" s="1" t="n"/>
+      <c r="H111" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" t="n">
+        <v>12</v>
+      </c>
+      <c r="J111" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="K111" t="n">
+        <v>22</v>
+      </c>
+      <c r="L111" t="n">
+        <v>21.56862745098039</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="n"/>
+      <c r="E112" s="1" t="n"/>
+      <c r="F112" s="1" t="n"/>
+      <c r="G112" s="1" t="n"/>
+      <c r="H112" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>14</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13.72549019607843</v>
+      </c>
+      <c r="K112" t="n">
+        <v>36</v>
+      </c>
+      <c r="L112" t="n">
+        <v>35.29411764705883</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="1" t="n"/>
+      <c r="F113" s="1" t="n"/>
+      <c r="G113" s="1" t="n"/>
+      <c r="H113" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I113" t="n">
+        <v>66</v>
+      </c>
+      <c r="J113" t="n">
+        <v>64.70588235294117</v>
+      </c>
+      <c r="K113" t="n">
+        <v>102</v>
+      </c>
+      <c r="L113" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>Libro 11</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>5.772727272727272</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>0.6047731215432993</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="n"/>
+      <c r="E115" s="1" t="n"/>
+      <c r="F115" s="1" t="n"/>
+      <c r="G115" s="1" t="n"/>
+      <c r="H115" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="n"/>
+      <c r="E116" s="1" t="n"/>
+      <c r="F116" s="1" t="n"/>
+      <c r="G116" s="1" t="n"/>
+      <c r="H116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="n"/>
+      <c r="E117" s="1" t="n"/>
+      <c r="F117" s="1" t="n"/>
+      <c r="G117" s="1" t="n"/>
+      <c r="H117" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K117" t="n">
+        <v>4</v>
+      </c>
+      <c r="L117" t="n">
+        <v>9.090909090909092</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="n"/>
+      <c r="E118" s="1" t="n"/>
+      <c r="F118" s="1" t="n"/>
+      <c r="G118" s="1" t="n"/>
+      <c r="H118" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="K118" t="n">
+        <v>6</v>
+      </c>
+      <c r="L118" t="n">
+        <v>13.63636363636364</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="n"/>
+      <c r="E119" s="1" t="n"/>
+      <c r="F119" s="1" t="n"/>
+      <c r="G119" s="1" t="n"/>
+      <c r="H119" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I119" t="n">
+        <v>38</v>
+      </c>
+      <c r="J119" t="n">
+        <v>86.36363636363636</v>
+      </c>
+      <c r="K119" t="n">
+        <v>44</v>
+      </c>
+      <c r="L119" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>ingeniería Industrial</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>Libro 38</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>5.809917355371901</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>0.5513325929022304</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="n"/>
+      <c r="E121" s="1" t="n"/>
+      <c r="F121" s="1" t="n"/>
+      <c r="G121" s="1" t="n"/>
+      <c r="H121" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="n"/>
+      <c r="E122" s="1" t="n"/>
+      <c r="F122" s="1" t="n"/>
+      <c r="G122" s="1" t="n"/>
+      <c r="H122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.652892561983471</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.652892561983471</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="n"/>
+      <c r="E123" s="1" t="n"/>
+      <c r="F123" s="1" t="n"/>
+      <c r="G123" s="1" t="n"/>
+      <c r="H123" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.479338842975207</v>
+      </c>
+      <c r="K123" t="n">
+        <v>10</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4.132231404958678</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n"/>
+      <c r="E124" s="1" t="n"/>
+      <c r="F124" s="1" t="n"/>
+      <c r="G124" s="1" t="n"/>
+      <c r="H124" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>22</v>
+      </c>
+      <c r="J124" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K124" t="n">
+        <v>32</v>
+      </c>
+      <c r="L124" t="n">
+        <v>13.22314049586777</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
+      <c r="E125" s="1" t="n"/>
+      <c r="F125" s="1" t="n"/>
+      <c r="G125" s="1" t="n"/>
+      <c r="H125" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I125" t="n">
+        <v>210</v>
+      </c>
+      <c r="J125" t="n">
+        <v>86.77685950413223</v>
+      </c>
+      <c r="K125" t="n">
+        <v>242</v>
+      </c>
+      <c r="L125" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>Libro 35</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>1.586400537905439</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
+      <c r="D127" s="1" t="n"/>
+      <c r="E127" s="1" t="n"/>
+      <c r="F127" s="1" t="n"/>
+      <c r="G127" s="1" t="n"/>
+      <c r="H127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="n"/>
+      <c r="E128" s="1" t="n"/>
+      <c r="F128" s="1" t="n"/>
+      <c r="G128" s="1" t="n"/>
+      <c r="H128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="n"/>
+      <c r="E129" s="1" t="n"/>
+      <c r="F129" s="1" t="n"/>
+      <c r="G129" s="1" t="n"/>
+      <c r="H129" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="n"/>
+      <c r="E130" s="1" t="n"/>
+      <c r="F130" s="1" t="n"/>
+      <c r="G130" s="1" t="n"/>
+      <c r="H130" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>50</v>
+      </c>
+      <c r="K130" t="n">
+        <v>10</v>
+      </c>
+      <c r="L130" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="n"/>
+      <c r="E131" s="1" t="n"/>
+      <c r="F131" s="1" t="n"/>
+      <c r="G131" s="1" t="n"/>
+      <c r="H131" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I131" t="n">
+        <v>6</v>
+      </c>
+      <c r="J131" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>16</v>
+      </c>
+      <c r="L131" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="143">
     <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A31"/>
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A50:A61"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A66:A77"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="A108:A119"/>
+    <mergeCell ref="A120:A131"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
@@ -2084,8 +3962,20 @@
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="B38:B43"/>
     <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B131"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C19"/>
@@ -2094,8 +3984,20 @@
     <mergeCell ref="C32:C37"/>
     <mergeCell ref="C38:C43"/>
     <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C50:C55"/>
-    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C66:C71"/>
+    <mergeCell ref="C72:C77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C96:C101"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="C114:C119"/>
+    <mergeCell ref="C120:C125"/>
+    <mergeCell ref="C126:C131"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
@@ -2104,8 +4006,20 @@
     <mergeCell ref="D32:D37"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="D44:D49"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="D60:D65"/>
+    <mergeCell ref="D66:D71"/>
+    <mergeCell ref="D72:D77"/>
+    <mergeCell ref="D78:D83"/>
+    <mergeCell ref="D84:D89"/>
+    <mergeCell ref="D90:D95"/>
+    <mergeCell ref="D96:D101"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="D108:D113"/>
+    <mergeCell ref="D114:D119"/>
+    <mergeCell ref="D120:D125"/>
+    <mergeCell ref="D126:D131"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
@@ -2114,8 +4028,20 @@
     <mergeCell ref="E32:E37"/>
     <mergeCell ref="E38:E43"/>
     <mergeCell ref="E44:E49"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="E72:E77"/>
+    <mergeCell ref="E78:E83"/>
+    <mergeCell ref="E84:E89"/>
+    <mergeCell ref="E90:E95"/>
+    <mergeCell ref="E96:E101"/>
+    <mergeCell ref="E102:E107"/>
+    <mergeCell ref="E108:E113"/>
+    <mergeCell ref="E114:E119"/>
+    <mergeCell ref="E120:E125"/>
+    <mergeCell ref="E126:E131"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
@@ -2124,8 +4050,20 @@
     <mergeCell ref="F32:F37"/>
     <mergeCell ref="F38:F43"/>
     <mergeCell ref="F44:F49"/>
-    <mergeCell ref="F50:F55"/>
-    <mergeCell ref="F56:F61"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="F66:F71"/>
+    <mergeCell ref="F72:F77"/>
+    <mergeCell ref="F78:F83"/>
+    <mergeCell ref="F84:F89"/>
+    <mergeCell ref="F90:F95"/>
+    <mergeCell ref="F96:F101"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="F126:F131"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G19"/>
@@ -2134,8 +4072,20 @@
     <mergeCell ref="G32:G37"/>
     <mergeCell ref="G38:G43"/>
     <mergeCell ref="G44:G49"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="G72:G77"/>
+    <mergeCell ref="G78:G83"/>
+    <mergeCell ref="G84:G89"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="G96:G101"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="G108:G113"/>
+    <mergeCell ref="G114:G119"/>
+    <mergeCell ref="G120:G125"/>
+    <mergeCell ref="G126:G131"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2147,7 +4097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,16 +4130,16 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Ingeniería en Telecomunicaciones</t>
+          <t>Administración y Contaduría</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Libro 34</t>
+          <t>c</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -2198,40 +4148,44 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>Ingeniería en Telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Libro 34</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
           <t>Psicología</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Libro 31</t>
         </is>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Libro 32</t>
-        </is>
-      </c>
       <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Libro 33</t>
+          <t>Libro 32</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
@@ -2245,7 +4199,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Libro 34</t>
+          <t>Libro 33</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
@@ -2259,7 +4213,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Libro 35</t>
+          <t>Libro 34</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
@@ -2273,7 +4227,7 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Libro 36</t>
+          <t>Libro 35</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
@@ -2287,7 +4241,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Libro 37</t>
+          <t>Libro 36</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
@@ -2301,7 +4255,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Libro 38</t>
+          <t>Libro 37</t>
         </is>
       </c>
       <c r="C10" s="1" t="n">
@@ -2315,7 +4269,7 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Libro 39</t>
+          <t>Libro 38</t>
         </is>
       </c>
       <c r="C11" s="1" t="n">
@@ -2329,7 +4283,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Libro 40</t>
+          <t>Libro 39</t>
         </is>
       </c>
       <c r="C12" s="1" t="n">
@@ -2343,7 +4297,7 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Libro 41</t>
+          <t>Libro 40</t>
         </is>
       </c>
       <c r="C13" s="1" t="n">
@@ -2357,7 +4311,7 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Libro 42</t>
+          <t>Libro 41</t>
         </is>
       </c>
       <c r="C14" s="1" t="n">
@@ -2371,7 +4325,7 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Libro 43</t>
+          <t>Libro 42</t>
         </is>
       </c>
       <c r="C15" s="1" t="n">
@@ -2385,7 +4339,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Libro 44</t>
+          <t>Libro 43</t>
         </is>
       </c>
       <c r="C16" s="1" t="n">
@@ -2399,7 +4353,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Libro 45</t>
+          <t>Libro 44</t>
         </is>
       </c>
       <c r="C17" s="1" t="n">
@@ -2413,7 +4367,7 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Libro 46</t>
+          <t>Libro 45</t>
         </is>
       </c>
       <c r="C18" s="1" t="n">
@@ -2427,7 +4381,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Libro 47</t>
+          <t>Libro 46</t>
         </is>
       </c>
       <c r="C19" s="1" t="n">
@@ -2441,7 +4395,7 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Libro 48</t>
+          <t>Libro 47</t>
         </is>
       </c>
       <c r="C20" s="1" t="n">
@@ -2455,7 +4409,7 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Libro 49</t>
+          <t>Libro 48</t>
         </is>
       </c>
       <c r="C21" s="1" t="n">
@@ -2469,7 +4423,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Libro 50</t>
+          <t>Libro 49</t>
         </is>
       </c>
       <c r="C22" s="1" t="n">
@@ -2483,7 +4437,7 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Libro 51</t>
+          <t>Libro 50</t>
         </is>
       </c>
       <c r="C23" s="1" t="n">
@@ -2497,7 +4451,7 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Libro 52</t>
+          <t>Libro 51</t>
         </is>
       </c>
       <c r="C24" s="1" t="n">
@@ -2511,7 +4465,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Libro 53</t>
+          <t>Libro 52</t>
         </is>
       </c>
       <c r="C25" s="1" t="n">
@@ -2525,7 +4479,7 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Libro 54</t>
+          <t>Libro 53</t>
         </is>
       </c>
       <c r="C26" s="1" t="n">
@@ -2539,7 +4493,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Libro 55</t>
+          <t>Libro 54</t>
         </is>
       </c>
       <c r="C27" s="1" t="n">
@@ -2553,7 +4507,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Libro 56</t>
+          <t>Libro 55</t>
         </is>
       </c>
       <c r="C28" s="1" t="n">
@@ -2567,7 +4521,7 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Libro 57</t>
+          <t>Libro 56</t>
         </is>
       </c>
       <c r="C29" s="1" t="n">
@@ -2581,7 +4535,7 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Libro 58</t>
+          <t>Libro 57</t>
         </is>
       </c>
       <c r="C30" s="1" t="n">
@@ -2595,7 +4549,7 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Libro 59</t>
+          <t>Libro 58</t>
         </is>
       </c>
       <c r="C31" s="1" t="n">
@@ -2609,7 +4563,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Libro 60</t>
+          <t>Libro 59</t>
         </is>
       </c>
       <c r="C32" s="1" t="n">
@@ -2623,7 +4577,7 @@
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Libro 61</t>
+          <t>Libro 60</t>
         </is>
       </c>
       <c r="C33" s="1" t="n">
@@ -2637,7 +4591,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Libro 62</t>
+          <t>Libro 61</t>
         </is>
       </c>
       <c r="C34" s="1" t="n">
@@ -2651,7 +4605,7 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Libro 63</t>
+          <t>Libro 62</t>
         </is>
       </c>
       <c r="C35" s="1" t="n">
@@ -2665,7 +4619,7 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Libro 64</t>
+          <t>Libro 63</t>
         </is>
       </c>
       <c r="C36" s="1" t="n">
@@ -2679,7 +4633,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Libro 65</t>
+          <t>Libro 64</t>
         </is>
       </c>
       <c r="C37" s="1" t="n">
@@ -2693,7 +4647,7 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Libro 66</t>
+          <t>Libro 65</t>
         </is>
       </c>
       <c r="C38" s="1" t="n">
@@ -2707,7 +4661,7 @@
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Libro 67</t>
+          <t>Libro 66</t>
         </is>
       </c>
       <c r="C39" s="1" t="n">
@@ -2721,7 +4675,7 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Libro 68</t>
+          <t>Libro 67</t>
         </is>
       </c>
       <c r="C40" s="1" t="n">
@@ -2735,7 +4689,7 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Libro 69</t>
+          <t>Libro 68</t>
         </is>
       </c>
       <c r="C41" s="1" t="n">
@@ -2749,7 +4703,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Libro 70</t>
+          <t>Libro 69</t>
         </is>
       </c>
       <c r="C42" s="1" t="n">
@@ -2763,19 +4717,33 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
+          <t>Libro 70</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
           <t>Libro 71</t>
         </is>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A43"/>
+    <mergeCell ref="A4:A44"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,35 +435,65 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Mediana</t>
+          <t>Curtosis</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rango Intercuartil</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>P(90) - P(10)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Moda</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Opinión del 1 al 6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>fi</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Fi</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Hi</t>
         </is>
@@ -487,27 +517,45 @@
         <v>5.666666666666667</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.7781887234103486</v>
+        <v>0.7781887234103485</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>6</v>
+        <v>-1.285035326157877</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>0.7936507936507936</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.7936507936507936</v>
       </c>
     </row>
@@ -519,19 +567,25 @@
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n"/>
       <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -543,19 +597,25 @@
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
       <c r="G4" s="1" t="n"/>
-      <c r="H4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.380952380952381</v>
       </c>
     </row>
@@ -567,19 +627,25 @@
       <c r="E5" s="1" t="n"/>
       <c r="F5" s="1" t="n"/>
       <c r="G5" s="1" t="n"/>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>16</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
         <v>6.349206349206349</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
         <v>22</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>8.730158730158729</v>
       </c>
     </row>
@@ -591,19 +657,25 @@
       <c r="E6" s="1" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
         <v>30</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
         <v>11.9047619047619</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>52</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>20.63492063492063</v>
       </c>
     </row>
@@ -615,19 +687,25 @@
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
       <c r="G7" s="1" t="n"/>
-      <c r="H7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
         <v>200</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
         <v>79.36507936507937</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>252</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -648,24 +726,42 @@
         <v>1.196943018930863</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>6</v>
+        <v>0.2083333333333334</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>6</v>
+        <v>-1.692623620282002</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
         <v>2.597402597402597</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>2.597402597402597</v>
       </c>
     </row>
@@ -677,19 +773,25 @@
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,19 +803,25 @@
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
         <v>7.792207792207792</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Q10" t="n">
         <v>8</v>
       </c>
-      <c r="L10" t="n">
+      <c r="R10" t="n">
         <v>10.38961038961039</v>
       </c>
     </row>
@@ -725,19 +833,25 @@
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I11" t="n">
+      <c r="O11" t="n">
         <v>8</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
         <v>10.38961038961039</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Q11" t="n">
         <v>16</v>
       </c>
-      <c r="L11" t="n">
+      <c r="R11" t="n">
         <v>20.77922077922078</v>
       </c>
     </row>
@@ -749,19 +863,25 @@
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="n">
+      <c r="O12" t="n">
         <v>8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
         <v>10.38961038961039</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Q12" t="n">
         <v>24</v>
       </c>
-      <c r="L12" t="n">
+      <c r="R12" t="n">
         <v>31.16883116883117</v>
       </c>
     </row>
@@ -773,19 +893,25 @@
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
-      <c r="H13" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
         <v>53</v>
       </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
         <v>68.83116883116884</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Q13" t="n">
         <v>77</v>
       </c>
-      <c r="L13" t="n">
+      <c r="R13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -807,27 +933,45 @@
         <v>5.24074074074074</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.9259536167545083</v>
+        <v>0.9259536167545084</v>
       </c>
       <c r="F14" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.7799766739435925</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="I14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -839,19 +983,25 @@
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
+      <c r="O15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
         <v>1.851851851851852</v>
       </c>
-      <c r="K15" t="n">
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="R15" t="n">
         <v>1.851851851851852</v>
       </c>
     </row>
@@ -863,19 +1013,25 @@
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
-      <c r="H16" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
         <v>3.703703703703703</v>
       </c>
-      <c r="K16" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
         <v>5.555555555555555</v>
       </c>
     </row>
@@ -887,19 +1043,25 @@
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
+      <c r="O17" t="n">
         <v>12</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Q17" t="n">
         <v>18</v>
       </c>
-      <c r="L17" t="n">
+      <c r="R17" t="n">
         <v>16.66666666666666</v>
       </c>
     </row>
@@ -911,19 +1073,25 @@
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I18" t="n">
+      <c r="O18" t="n">
         <v>38</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
         <v>35.18518518518518</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Q18" t="n">
         <v>56</v>
       </c>
-      <c r="L18" t="n">
+      <c r="R18" t="n">
         <v>51.85185185185185</v>
       </c>
     </row>
@@ -935,19 +1103,25 @@
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
       <c r="G19" s="1" t="n"/>
-      <c r="H19" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
         <v>52</v>
       </c>
-      <c r="J19" t="n">
+      <c r="P19" t="n">
         <v>48.14814814814815</v>
       </c>
-      <c r="K19" t="n">
+      <c r="Q19" t="n">
         <v>108</v>
       </c>
-      <c r="L19" t="n">
+      <c r="R19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -967,25 +1141,45 @@
       <c r="E20" s="1" t="n">
         <v>0.28232985128664</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>6</v>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
       </c>
       <c r="G20" s="1" t="n">
-        <v>6</v>
+        <v>-0.8854890790353674</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,19 +1191,25 @@
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,19 +1221,25 @@
       <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
-      <c r="H22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1045,19 +1251,25 @@
       <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1069,19 +1281,25 @@
       <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I24" t="n">
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="K24" t="n">
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="L24" t="n">
+      <c r="R24" t="n">
         <v>8.333333333333332</v>
       </c>
     </row>
@@ -1093,19 +1311,25 @@
       <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
-      <c r="H25" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
         <v>22</v>
       </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
         <v>91.66666666666666</v>
       </c>
-      <c r="K25" t="n">
+      <c r="Q25" t="n">
         <v>24</v>
       </c>
-      <c r="L25" t="n">
+      <c r="R25" t="n">
         <v>99.99999999999999</v>
       </c>
     </row>
@@ -1130,24 +1354,42 @@
         <v>1.196891141239242</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>6</v>
+        <v>-1.483434994968129</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.061224489795918</v>
       </c>
-      <c r="K26" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="Q26" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" t="n">
         <v>3.061224489795918</v>
       </c>
     </row>
@@ -1159,19 +1401,25 @@
       <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
       <c r="G27" s="1" t="n"/>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="n">
         <v>2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="P27" t="n">
         <v>1.020408163265306</v>
       </c>
-      <c r="K27" t="n">
+      <c r="Q27" t="n">
         <v>8</v>
       </c>
-      <c r="L27" t="n">
+      <c r="R27" t="n">
         <v>4.081632653061225</v>
       </c>
     </row>
@@ -1183,19 +1431,25 @@
       <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
       <c r="G28" s="1" t="n"/>
-      <c r="H28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="n">
         <v>10</v>
       </c>
-      <c r="J28" t="n">
+      <c r="P28" t="n">
         <v>5.102040816326531</v>
       </c>
-      <c r="K28" t="n">
+      <c r="Q28" t="n">
         <v>18</v>
       </c>
-      <c r="L28" t="n">
+      <c r="R28" t="n">
         <v>9.183673469387756</v>
       </c>
     </row>
@@ -1207,19 +1461,25 @@
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
       <c r="G29" s="1" t="n"/>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="n">
         <v>14</v>
       </c>
-      <c r="J29" t="n">
+      <c r="P29" t="n">
         <v>7.142857142857142</v>
       </c>
-      <c r="K29" t="n">
+      <c r="Q29" t="n">
         <v>32</v>
       </c>
-      <c r="L29" t="n">
+      <c r="R29" t="n">
         <v>16.3265306122449</v>
       </c>
     </row>
@@ -1231,19 +1491,25 @@
       <c r="E30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
       <c r="G30" s="1" t="n"/>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="n">
         <v>20</v>
       </c>
-      <c r="J30" t="n">
+      <c r="P30" t="n">
         <v>10.20408163265306</v>
       </c>
-      <c r="K30" t="n">
+      <c r="Q30" t="n">
         <v>52</v>
       </c>
-      <c r="L30" t="n">
+      <c r="R30" t="n">
         <v>26.53061224489796</v>
       </c>
     </row>
@@ -1255,19 +1521,25 @@
       <c r="E31" s="1" t="n"/>
       <c r="F31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
-      <c r="H31" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
         <v>144</v>
       </c>
-      <c r="J31" t="n">
+      <c r="P31" t="n">
         <v>73.46938775510205</v>
       </c>
-      <c r="K31" t="n">
+      <c r="Q31" t="n">
         <v>196</v>
       </c>
-      <c r="L31" t="n">
+      <c r="R31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1285,27 +1557,45 @@
         <v>5.756756756756757</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.8884465557859783</v>
+        <v>0.8884465557859782</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>6</v>
+        <v>-0.8213546723518581</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="P32" t="n">
         <v>2.702702702702703</v>
       </c>
-      <c r="K32" t="n">
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="L32" t="n">
+      <c r="R32" t="n">
         <v>2.702702702702703</v>
       </c>
     </row>
@@ -1317,19 +1607,25 @@
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
       <c r="G33" s="1" t="n"/>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1341,19 +1637,25 @@
       <c r="E34" s="1" t="n"/>
       <c r="F34" s="1" t="n"/>
       <c r="G34" s="1" t="n"/>
-      <c r="H34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,19 +1667,25 @@
       <c r="E35" s="1" t="n"/>
       <c r="F35" s="1" t="n"/>
       <c r="G35" s="1" t="n"/>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I35" t="n">
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="P35" t="n">
         <v>2.702702702702703</v>
       </c>
-      <c r="K35" t="n">
+      <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="L35" t="n">
+      <c r="R35" t="n">
         <v>5.405405405405405</v>
       </c>
     </row>
@@ -1389,19 +1697,25 @@
       <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
       <c r="G36" s="1" t="n"/>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I36" t="n">
+      <c r="O36" t="n">
         <v>4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="P36" t="n">
         <v>5.405405405405405</v>
       </c>
-      <c r="K36" t="n">
+      <c r="Q36" t="n">
         <v>8</v>
       </c>
-      <c r="L36" t="n">
+      <c r="R36" t="n">
         <v>10.81081081081081</v>
       </c>
     </row>
@@ -1413,19 +1727,25 @@
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
       <c r="G37" s="1" t="n"/>
-      <c r="H37" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" t="n">
         <v>66</v>
       </c>
-      <c r="J37" t="n">
+      <c r="P37" t="n">
         <v>89.18918918918919</v>
       </c>
-      <c r="K37" t="n">
+      <c r="Q37" t="n">
         <v>74</v>
       </c>
-      <c r="L37" t="n">
+      <c r="R37" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1447,27 +1767,45 @@
         <v>5.564102564102564</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.7802355903888978</v>
+        <v>0.7802355903888976</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>6</v>
+        <v>-1.676022375550066</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1479,19 +1817,25 @@
       <c r="E39" s="1" t="n"/>
       <c r="F39" s="1" t="n"/>
       <c r="G39" s="1" t="n"/>
-      <c r="H39" s="1" t="n">
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,19 +1847,25 @@
       <c r="E40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
       <c r="G40" s="1" t="n"/>
-      <c r="H40" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1527,19 +1877,25 @@
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
       <c r="G41" s="1" t="n"/>
-      <c r="H41" s="1" t="n">
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I41" t="n">
+      <c r="O41" t="n">
         <v>28</v>
       </c>
-      <c r="J41" t="n">
+      <c r="P41" t="n">
         <v>17.94871794871795</v>
       </c>
-      <c r="K41" t="n">
+      <c r="Q41" t="n">
         <v>28</v>
       </c>
-      <c r="L41" t="n">
+      <c r="R41" t="n">
         <v>17.94871794871795</v>
       </c>
     </row>
@@ -1551,19 +1907,25 @@
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
       <c r="G42" s="1" t="n"/>
-      <c r="H42" s="1" t="n">
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I42" t="n">
+      <c r="O42" t="n">
         <v>12</v>
       </c>
-      <c r="J42" t="n">
+      <c r="P42" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="K42" t="n">
+      <c r="Q42" t="n">
         <v>40</v>
       </c>
-      <c r="L42" t="n">
+      <c r="R42" t="n">
         <v>25.64102564102564</v>
       </c>
     </row>
@@ -1575,19 +1937,25 @@
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
       <c r="G43" s="1" t="n"/>
-      <c r="H43" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
         <v>116</v>
       </c>
-      <c r="J43" t="n">
+      <c r="P43" t="n">
         <v>74.35897435897436</v>
       </c>
-      <c r="K43" t="n">
+      <c r="Q43" t="n">
         <v>156</v>
       </c>
-      <c r="L43" t="n">
+      <c r="R43" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1605,27 +1973,45 @@
         <v>5.727272727272728</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.6189243203857999</v>
+        <v>0.6189243203857998</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>6</v>
+        <v>-1.321941619084887</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1637,19 +2023,25 @@
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
       <c r="G45" s="1" t="n"/>
-      <c r="H45" s="1" t="n">
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1661,19 +2053,25 @@
       <c r="E46" s="1" t="n"/>
       <c r="F46" s="1" t="n"/>
       <c r="G46" s="1" t="n"/>
-      <c r="H46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,19 +2083,25 @@
       <c r="E47" s="1" t="n"/>
       <c r="F47" s="1" t="n"/>
       <c r="G47" s="1" t="n"/>
-      <c r="H47" s="1" t="n">
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I47" t="n">
+      <c r="O47" t="n">
         <v>12</v>
       </c>
-      <c r="J47" t="n">
+      <c r="P47" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="K47" t="n">
+      <c r="Q47" t="n">
         <v>12</v>
       </c>
-      <c r="L47" t="n">
+      <c r="R47" t="n">
         <v>9.090909090909092</v>
       </c>
     </row>
@@ -1709,19 +2113,25 @@
       <c r="E48" s="1" t="n"/>
       <c r="F48" s="1" t="n"/>
       <c r="G48" s="1" t="n"/>
-      <c r="H48" s="1" t="n">
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I48" t="n">
+      <c r="O48" t="n">
         <v>12</v>
       </c>
-      <c r="J48" t="n">
+      <c r="P48" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="K48" t="n">
+      <c r="Q48" t="n">
         <v>24</v>
       </c>
-      <c r="L48" t="n">
+      <c r="R48" t="n">
         <v>18.18181818181818</v>
       </c>
     </row>
@@ -1733,19 +2143,25 @@
       <c r="E49" s="1" t="n"/>
       <c r="F49" s="1" t="n"/>
       <c r="G49" s="1" t="n"/>
-      <c r="H49" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O49" t="n">
         <v>108</v>
       </c>
-      <c r="J49" t="n">
+      <c r="P49" t="n">
         <v>81.81818181818183</v>
       </c>
-      <c r="K49" t="n">
+      <c r="Q49" t="n">
         <v>132</v>
       </c>
-      <c r="L49" t="n">
+      <c r="R49" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1763,27 +2179,45 @@
         <v>5.823529411764706</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>0.5166244188642394</v>
+        <v>0.516624418864239</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>6</v>
+        <v>-1.024751725576108</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1795,19 +2229,25 @@
       <c r="E51" s="1" t="n"/>
       <c r="F51" s="1" t="n"/>
       <c r="G51" s="1" t="n"/>
-      <c r="H51" s="1" t="n">
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I51" t="n">
+      <c r="O51" t="n">
         <v>4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="P51" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="K51" t="n">
+      <c r="Q51" t="n">
         <v>4</v>
       </c>
-      <c r="L51" t="n">
+      <c r="R51" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
@@ -1819,19 +2259,25 @@
       <c r="E52" s="1" t="n"/>
       <c r="F52" s="1" t="n"/>
       <c r="G52" s="1" t="n"/>
-      <c r="H52" s="1" t="n">
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I52" t="n">
+      <c r="O52" t="n">
         <v>4</v>
       </c>
-      <c r="J52" t="n">
+      <c r="P52" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="K52" t="n">
+      <c r="Q52" t="n">
         <v>8</v>
       </c>
-      <c r="L52" t="n">
+      <c r="R52" t="n">
         <v>11.76470588235294</v>
       </c>
     </row>
@@ -1843,19 +2289,25 @@
       <c r="E53" s="1" t="n"/>
       <c r="F53" s="1" t="n"/>
       <c r="G53" s="1" t="n"/>
-      <c r="H53" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" t="n">
         <v>60</v>
       </c>
-      <c r="J53" t="n">
+      <c r="P53" t="n">
         <v>88.23529411764706</v>
       </c>
-      <c r="K53" t="n">
+      <c r="Q53" t="n">
         <v>68</v>
       </c>
-      <c r="L53" t="n">
+      <c r="R53" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1879,25 +2331,45 @@
       <c r="E54" s="1" t="n">
         <v>0.4836934064302512</v>
       </c>
-      <c r="F54" s="1" t="n">
-        <v>6</v>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
       </c>
       <c r="G54" s="1" t="n">
-        <v>6</v>
+        <v>-0.8614272204819716</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1909,19 +2381,25 @@
       <c r="E55" s="1" t="n"/>
       <c r="F55" s="1" t="n"/>
       <c r="G55" s="1" t="n"/>
-      <c r="H55" s="1" t="n">
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1933,19 +2411,25 @@
       <c r="E56" s="1" t="n"/>
       <c r="F56" s="1" t="n"/>
       <c r="G56" s="1" t="n"/>
-      <c r="H56" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1957,19 +2441,25 @@
       <c r="E57" s="1" t="n"/>
       <c r="F57" s="1" t="n"/>
       <c r="G57" s="1" t="n"/>
-      <c r="H57" s="1" t="n">
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I57" t="n">
+      <c r="O57" t="n">
         <v>4</v>
       </c>
-      <c r="J57" t="n">
+      <c r="P57" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="K57" t="n">
+      <c r="Q57" t="n">
         <v>4</v>
       </c>
-      <c r="L57" t="n">
+      <c r="R57" t="n">
         <v>5.555555555555555</v>
       </c>
     </row>
@@ -1981,19 +2471,25 @@
       <c r="E58" s="1" t="n"/>
       <c r="F58" s="1" t="n"/>
       <c r="G58" s="1" t="n"/>
-      <c r="H58" s="1" t="n">
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I58" t="n">
+      <c r="O58" t="n">
         <v>2</v>
       </c>
-      <c r="J58" t="n">
+      <c r="P58" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="K58" t="n">
-        <v>6</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="Q58" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" t="n">
         <v>8.333333333333332</v>
       </c>
     </row>
@@ -2005,19 +2501,25 @@
       <c r="E59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
       <c r="G59" s="1" t="n"/>
-      <c r="H59" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O59" t="n">
         <v>66</v>
       </c>
-      <c r="J59" t="n">
+      <c r="P59" t="n">
         <v>91.66666666666666</v>
       </c>
-      <c r="K59" t="n">
+      <c r="Q59" t="n">
         <v>72</v>
       </c>
-      <c r="L59" t="n">
+      <c r="R59" t="n">
         <v>99.99999999999999</v>
       </c>
     </row>
@@ -2035,27 +2537,47 @@
         <v>5.925925925925926</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>0.2668802563418119</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>6</v>
+        <v>0.2668802563418118</v>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
       </c>
       <c r="G60" s="1" t="n">
-        <v>6</v>
+        <v>-0.832666399786457</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2067,19 +2589,25 @@
       <c r="E61" s="1" t="n"/>
       <c r="F61" s="1" t="n"/>
       <c r="G61" s="1" t="n"/>
-      <c r="H61" s="1" t="n">
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2091,19 +2619,25 @@
       <c r="E62" s="1" t="n"/>
       <c r="F62" s="1" t="n"/>
       <c r="G62" s="1" t="n"/>
-      <c r="H62" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2115,19 +2649,25 @@
       <c r="E63" s="1" t="n"/>
       <c r="F63" s="1" t="n"/>
       <c r="G63" s="1" t="n"/>
-      <c r="H63" s="1" t="n">
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,19 +2679,25 @@
       <c r="E64" s="1" t="n"/>
       <c r="F64" s="1" t="n"/>
       <c r="G64" s="1" t="n"/>
-      <c r="H64" s="1" t="n">
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I64" t="n">
+      <c r="O64" t="n">
         <v>2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="P64" t="n">
         <v>7.407407407407407</v>
       </c>
-      <c r="K64" t="n">
+      <c r="Q64" t="n">
         <v>2</v>
       </c>
-      <c r="L64" t="n">
+      <c r="R64" t="n">
         <v>7.407407407407407</v>
       </c>
     </row>
@@ -2163,19 +2709,25 @@
       <c r="E65" s="1" t="n"/>
       <c r="F65" s="1" t="n"/>
       <c r="G65" s="1" t="n"/>
-      <c r="H65" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O65" t="n">
         <v>25</v>
       </c>
-      <c r="J65" t="n">
+      <c r="P65" t="n">
         <v>92.5925925925926</v>
       </c>
-      <c r="K65" t="n">
+      <c r="Q65" t="n">
         <v>27</v>
       </c>
-      <c r="L65" t="n">
+      <c r="R65" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2197,27 +2749,45 @@
         <v>5.283236994219653</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>1.213110041412962</v>
+        <v>1.213110041412963</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>6</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>6</v>
+        <v>-1.772542427261178</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
         <v>5</v>
       </c>
-      <c r="J66" t="n">
+      <c r="I66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
         <v>2.890173410404624</v>
       </c>
-      <c r="K66" t="n">
+      <c r="Q66" t="n">
         <v>5</v>
       </c>
-      <c r="L66" t="n">
+      <c r="R66" t="n">
         <v>2.890173410404624</v>
       </c>
     </row>
@@ -2229,19 +2799,25 @@
       <c r="E67" s="1" t="n"/>
       <c r="F67" s="1" t="n"/>
       <c r="G67" s="1" t="n"/>
-      <c r="H67" s="1" t="n">
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I67" t="n">
+      <c r="O67" t="n">
         <v>2</v>
       </c>
-      <c r="J67" t="n">
+      <c r="P67" t="n">
         <v>1.15606936416185</v>
       </c>
-      <c r="K67" t="n">
+      <c r="Q67" t="n">
         <v>7</v>
       </c>
-      <c r="L67" t="n">
+      <c r="R67" t="n">
         <v>4.046242774566474</v>
       </c>
     </row>
@@ -2253,19 +2829,25 @@
       <c r="E68" s="1" t="n"/>
       <c r="F68" s="1" t="n"/>
       <c r="G68" s="1" t="n"/>
-      <c r="H68" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="n">
         <v>12</v>
       </c>
-      <c r="J68" t="n">
+      <c r="P68" t="n">
         <v>6.936416184971097</v>
       </c>
-      <c r="K68" t="n">
+      <c r="Q68" t="n">
         <v>19</v>
       </c>
-      <c r="L68" t="n">
+      <c r="R68" t="n">
         <v>10.98265895953757</v>
       </c>
     </row>
@@ -2277,19 +2859,25 @@
       <c r="E69" s="1" t="n"/>
       <c r="F69" s="1" t="n"/>
       <c r="G69" s="1" t="n"/>
-      <c r="H69" s="1" t="n">
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I69" t="n">
+      <c r="O69" t="n">
         <v>11</v>
       </c>
-      <c r="J69" t="n">
+      <c r="P69" t="n">
         <v>6.358381502890173</v>
       </c>
-      <c r="K69" t="n">
+      <c r="Q69" t="n">
         <v>30</v>
       </c>
-      <c r="L69" t="n">
+      <c r="R69" t="n">
         <v>17.34104046242775</v>
       </c>
     </row>
@@ -2301,19 +2889,25 @@
       <c r="E70" s="1" t="n"/>
       <c r="F70" s="1" t="n"/>
       <c r="G70" s="1" t="n"/>
-      <c r="H70" s="1" t="n">
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I70" t="n">
+      <c r="O70" t="n">
         <v>33</v>
       </c>
-      <c r="J70" t="n">
+      <c r="P70" t="n">
         <v>19.07514450867052</v>
       </c>
-      <c r="K70" t="n">
+      <c r="Q70" t="n">
         <v>63</v>
       </c>
-      <c r="L70" t="n">
+      <c r="R70" t="n">
         <v>36.41618497109826</v>
       </c>
     </row>
@@ -2325,19 +2919,25 @@
       <c r="E71" s="1" t="n"/>
       <c r="F71" s="1" t="n"/>
       <c r="G71" s="1" t="n"/>
-      <c r="H71" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" t="n">
         <v>110</v>
       </c>
-      <c r="J71" t="n">
+      <c r="P71" t="n">
         <v>63.58381502890174</v>
       </c>
-      <c r="K71" t="n">
+      <c r="Q71" t="n">
         <v>173</v>
       </c>
-      <c r="L71" t="n">
+      <c r="R71" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2355,27 +2955,45 @@
         <v>5.682539682539683</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>0.8948850498428026</v>
+        <v>0.8948850498428029</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>6</v>
+        <v>-1.064249483828396</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="K72" t="n">
-        <v>1</v>
-      </c>
-      <c r="L72" t="n">
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
         <v>1.587301587301587</v>
       </c>
     </row>
@@ -2387,19 +3005,25 @@
       <c r="E73" s="1" t="n"/>
       <c r="F73" s="1" t="n"/>
       <c r="G73" s="1" t="n"/>
-      <c r="H73" s="1" t="n">
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2411,19 +3035,25 @@
       <c r="E74" s="1" t="n"/>
       <c r="F74" s="1" t="n"/>
       <c r="G74" s="1" t="n"/>
-      <c r="H74" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="K74" t="n">
+      <c r="Q74" t="n">
         <v>2</v>
       </c>
-      <c r="L74" t="n">
+      <c r="R74" t="n">
         <v>3.174603174603174</v>
       </c>
     </row>
@@ -2435,19 +3065,25 @@
       <c r="E75" s="1" t="n"/>
       <c r="F75" s="1" t="n"/>
       <c r="G75" s="1" t="n"/>
-      <c r="H75" s="1" t="n">
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I75" t="n">
+      <c r="O75" t="n">
         <v>5</v>
       </c>
-      <c r="J75" t="n">
+      <c r="P75" t="n">
         <v>7.936507936507936</v>
       </c>
-      <c r="K75" t="n">
+      <c r="Q75" t="n">
         <v>7</v>
       </c>
-      <c r="L75" t="n">
+      <c r="R75" t="n">
         <v>11.11111111111111</v>
       </c>
     </row>
@@ -2459,19 +3095,25 @@
       <c r="E76" s="1" t="n"/>
       <c r="F76" s="1" t="n"/>
       <c r="G76" s="1" t="n"/>
-      <c r="H76" s="1" t="n">
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I76" t="n">
+      <c r="O76" t="n">
         <v>2</v>
       </c>
-      <c r="J76" t="n">
+      <c r="P76" t="n">
         <v>3.174603174603174</v>
       </c>
-      <c r="K76" t="n">
+      <c r="Q76" t="n">
         <v>9</v>
       </c>
-      <c r="L76" t="n">
+      <c r="R76" t="n">
         <v>14.28571428571428</v>
       </c>
     </row>
@@ -2483,19 +3125,25 @@
       <c r="E77" s="1" t="n"/>
       <c r="F77" s="1" t="n"/>
       <c r="G77" s="1" t="n"/>
-      <c r="H77" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I77" t="n">
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O77" t="n">
         <v>54</v>
       </c>
-      <c r="J77" t="n">
+      <c r="P77" t="n">
         <v>85.71428571428571</v>
       </c>
-      <c r="K77" t="n">
+      <c r="Q77" t="n">
         <v>63</v>
       </c>
-      <c r="L77" t="n">
+      <c r="R77" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2517,27 +3165,45 @@
         <v>5.548387096774194</v>
       </c>
       <c r="E78" s="1" t="n">
-        <v>0.8381580761249496</v>
+        <v>0.8381580761249494</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>6</v>
+        <v>-1.616447718240973</v>
       </c>
       <c r="H78" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2549,19 +3215,25 @@
       <c r="E79" s="1" t="n"/>
       <c r="F79" s="1" t="n"/>
       <c r="G79" s="1" t="n"/>
-      <c r="H79" s="1" t="n">
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2573,19 +3245,25 @@
       <c r="E80" s="1" t="n"/>
       <c r="F80" s="1" t="n"/>
       <c r="G80" s="1" t="n"/>
-      <c r="H80" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O80" t="n">
         <v>7</v>
       </c>
-      <c r="J80" t="n">
+      <c r="P80" t="n">
         <v>3.225806451612903</v>
       </c>
-      <c r="K80" t="n">
+      <c r="Q80" t="n">
         <v>7</v>
       </c>
-      <c r="L80" t="n">
+      <c r="R80" t="n">
         <v>3.225806451612903</v>
       </c>
     </row>
@@ -2597,19 +3275,25 @@
       <c r="E81" s="1" t="n"/>
       <c r="F81" s="1" t="n"/>
       <c r="G81" s="1" t="n"/>
-      <c r="H81" s="1" t="n">
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I81" t="n">
+      <c r="O81" t="n">
         <v>28</v>
       </c>
-      <c r="J81" t="n">
+      <c r="P81" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="K81" t="n">
+      <c r="Q81" t="n">
         <v>35</v>
       </c>
-      <c r="L81" t="n">
+      <c r="R81" t="n">
         <v>16.12903225806452</v>
       </c>
     </row>
@@ -2621,19 +3305,25 @@
       <c r="E82" s="1" t="n"/>
       <c r="F82" s="1" t="n"/>
       <c r="G82" s="1" t="n"/>
-      <c r="H82" s="1" t="n">
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I82" t="n">
+      <c r="O82" t="n">
         <v>21</v>
       </c>
-      <c r="J82" t="n">
+      <c r="P82" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="K82" t="n">
+      <c r="Q82" t="n">
         <v>56</v>
       </c>
-      <c r="L82" t="n">
+      <c r="R82" t="n">
         <v>25.80645161290322</v>
       </c>
     </row>
@@ -2645,19 +3335,25 @@
       <c r="E83" s="1" t="n"/>
       <c r="F83" s="1" t="n"/>
       <c r="G83" s="1" t="n"/>
-      <c r="H83" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O83" t="n">
         <v>161</v>
       </c>
-      <c r="J83" t="n">
+      <c r="P83" t="n">
         <v>74.19354838709677</v>
       </c>
-      <c r="K83" t="n">
+      <c r="Q83" t="n">
         <v>217</v>
       </c>
-      <c r="L83" t="n">
+      <c r="R83" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2678,24 +3374,42 @@
         <v>1.173751100162852</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>6</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>6</v>
+        <v>-2.011594375318174</v>
       </c>
       <c r="H84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2707,19 +3421,25 @@
       <c r="E85" s="1" t="n"/>
       <c r="F85" s="1" t="n"/>
       <c r="G85" s="1" t="n"/>
-      <c r="H85" s="1" t="n">
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
+      <c r="O85" t="n">
+        <v>6</v>
+      </c>
+      <c r="P85" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="K85" t="n">
-        <v>6</v>
-      </c>
-      <c r="L85" t="n">
+      <c r="Q85" t="n">
+        <v>6</v>
+      </c>
+      <c r="R85" t="n">
         <v>2.777777777777778</v>
       </c>
     </row>
@@ -2731,19 +3451,25 @@
       <c r="E86" s="1" t="n"/>
       <c r="F86" s="1" t="n"/>
       <c r="G86" s="1" t="n"/>
-      <c r="H86" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" t="n">
         <v>25</v>
       </c>
-      <c r="J86" t="n">
+      <c r="P86" t="n">
         <v>11.57407407407407</v>
       </c>
-      <c r="K86" t="n">
+      <c r="Q86" t="n">
         <v>31</v>
       </c>
-      <c r="L86" t="n">
+      <c r="R86" t="n">
         <v>14.35185185185185</v>
       </c>
     </row>
@@ -2755,19 +3481,25 @@
       <c r="E87" s="1" t="n"/>
       <c r="F87" s="1" t="n"/>
       <c r="G87" s="1" t="n"/>
-      <c r="H87" s="1" t="n">
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I87" t="n">
+      <c r="O87" t="n">
         <v>19</v>
       </c>
-      <c r="J87" t="n">
+      <c r="P87" t="n">
         <v>8.796296296296296</v>
       </c>
-      <c r="K87" t="n">
+      <c r="Q87" t="n">
         <v>50</v>
       </c>
-      <c r="L87" t="n">
+      <c r="R87" t="n">
         <v>23.14814814814815</v>
       </c>
     </row>
@@ -2779,19 +3511,25 @@
       <c r="E88" s="1" t="n"/>
       <c r="F88" s="1" t="n"/>
       <c r="G88" s="1" t="n"/>
-      <c r="H88" s="1" t="n">
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I88" t="n">
+      <c r="O88" t="n">
         <v>33</v>
       </c>
-      <c r="J88" t="n">
+      <c r="P88" t="n">
         <v>15.27777777777778</v>
       </c>
-      <c r="K88" t="n">
+      <c r="Q88" t="n">
         <v>83</v>
       </c>
-      <c r="L88" t="n">
+      <c r="R88" t="n">
         <v>38.42592592592592</v>
       </c>
     </row>
@@ -2803,19 +3541,25 @@
       <c r="E89" s="1" t="n"/>
       <c r="F89" s="1" t="n"/>
       <c r="G89" s="1" t="n"/>
-      <c r="H89" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O89" t="n">
         <v>133</v>
       </c>
-      <c r="J89" t="n">
+      <c r="P89" t="n">
         <v>61.57407407407407</v>
       </c>
-      <c r="K89" t="n">
+      <c r="Q89" t="n">
         <v>216</v>
       </c>
-      <c r="L89" t="n">
+      <c r="R89" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2840,24 +3584,42 @@
         <v>1.014305676595611</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>6</v>
+        <v>-2.082879062088027</v>
       </c>
       <c r="H90" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
+        <v>5</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
         <v>4</v>
       </c>
-      <c r="J90" t="n">
+      <c r="P90" t="n">
         <v>1.408450704225352</v>
       </c>
-      <c r="K90" t="n">
+      <c r="Q90" t="n">
         <v>4</v>
       </c>
-      <c r="L90" t="n">
+      <c r="R90" t="n">
         <v>1.408450704225352</v>
       </c>
     </row>
@@ -2869,19 +3631,25 @@
       <c r="E91" s="1" t="n"/>
       <c r="F91" s="1" t="n"/>
       <c r="G91" s="1" t="n"/>
-      <c r="H91" s="1" t="n">
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2893,19 +3661,25 @@
       <c r="E92" s="1" t="n"/>
       <c r="F92" s="1" t="n"/>
       <c r="G92" s="1" t="n"/>
-      <c r="H92" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="n">
         <v>12</v>
       </c>
-      <c r="J92" t="n">
+      <c r="P92" t="n">
         <v>4.225352112676056</v>
       </c>
-      <c r="K92" t="n">
+      <c r="Q92" t="n">
         <v>16</v>
       </c>
-      <c r="L92" t="n">
+      <c r="R92" t="n">
         <v>5.633802816901408</v>
       </c>
     </row>
@@ -2917,19 +3691,25 @@
       <c r="E93" s="1" t="n"/>
       <c r="F93" s="1" t="n"/>
       <c r="G93" s="1" t="n"/>
-      <c r="H93" s="1" t="n">
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I93" t="n">
+      <c r="O93" t="n">
         <v>40</v>
       </c>
-      <c r="J93" t="n">
+      <c r="P93" t="n">
         <v>14.08450704225352</v>
       </c>
-      <c r="K93" t="n">
+      <c r="Q93" t="n">
         <v>56</v>
       </c>
-      <c r="L93" t="n">
+      <c r="R93" t="n">
         <v>19.71830985915493</v>
       </c>
     </row>
@@ -2941,19 +3721,25 @@
       <c r="E94" s="1" t="n"/>
       <c r="F94" s="1" t="n"/>
       <c r="G94" s="1" t="n"/>
-      <c r="H94" s="1" t="n">
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I94" t="n">
+      <c r="O94" t="n">
         <v>64</v>
       </c>
-      <c r="J94" t="n">
+      <c r="P94" t="n">
         <v>22.53521126760564</v>
       </c>
-      <c r="K94" t="n">
+      <c r="Q94" t="n">
         <v>120</v>
       </c>
-      <c r="L94" t="n">
+      <c r="R94" t="n">
         <v>42.25352112676056</v>
       </c>
     </row>
@@ -2965,19 +3751,25 @@
       <c r="E95" s="1" t="n"/>
       <c r="F95" s="1" t="n"/>
       <c r="G95" s="1" t="n"/>
-      <c r="H95" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I95" t="n">
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O95" t="n">
         <v>164</v>
       </c>
-      <c r="J95" t="n">
+      <c r="P95" t="n">
         <v>57.74647887323944</v>
       </c>
-      <c r="K95" t="n">
+      <c r="Q95" t="n">
         <v>284</v>
       </c>
-      <c r="L95" t="n">
+      <c r="R95" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3002,24 +3794,42 @@
         <v>1.621841245625881</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>6</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>6</v>
+        <v>-1.785965014732456</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6</v>
-      </c>
-      <c r="J96" t="n">
+        <v>5</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>6</v>
+      </c>
+      <c r="P96" t="n">
         <v>10.3448275862069</v>
       </c>
-      <c r="K96" t="n">
-        <v>6</v>
-      </c>
-      <c r="L96" t="n">
+      <c r="Q96" t="n">
+        <v>6</v>
+      </c>
+      <c r="R96" t="n">
         <v>10.3448275862069</v>
       </c>
     </row>
@@ -3031,19 +3841,25 @@
       <c r="E97" s="1" t="n"/>
       <c r="F97" s="1" t="n"/>
       <c r="G97" s="1" t="n"/>
-      <c r="H97" s="1" t="n">
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3055,19 +3871,25 @@
       <c r="E98" s="1" t="n"/>
       <c r="F98" s="1" t="n"/>
       <c r="G98" s="1" t="n"/>
-      <c r="H98" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I98" t="n">
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="n">
         <v>4</v>
       </c>
-      <c r="J98" t="n">
+      <c r="P98" t="n">
         <v>6.896551724137931</v>
       </c>
-      <c r="K98" t="n">
+      <c r="Q98" t="n">
         <v>10</v>
       </c>
-      <c r="L98" t="n">
+      <c r="R98" t="n">
         <v>17.24137931034483</v>
       </c>
     </row>
@@ -3079,19 +3901,25 @@
       <c r="E99" s="1" t="n"/>
       <c r="F99" s="1" t="n"/>
       <c r="G99" s="1" t="n"/>
-      <c r="H99" s="1" t="n">
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I99" t="n">
+      <c r="O99" t="n">
         <v>2</v>
       </c>
-      <c r="J99" t="n">
+      <c r="P99" t="n">
         <v>3.448275862068965</v>
       </c>
-      <c r="K99" t="n">
+      <c r="Q99" t="n">
         <v>12</v>
       </c>
-      <c r="L99" t="n">
+      <c r="R99" t="n">
         <v>20.68965517241379</v>
       </c>
     </row>
@@ -3103,19 +3931,25 @@
       <c r="E100" s="1" t="n"/>
       <c r="F100" s="1" t="n"/>
       <c r="G100" s="1" t="n"/>
-      <c r="H100" s="1" t="n">
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I100" t="n">
+      <c r="O100" t="n">
         <v>10</v>
       </c>
-      <c r="J100" t="n">
+      <c r="P100" t="n">
         <v>17.24137931034483</v>
       </c>
-      <c r="K100" t="n">
+      <c r="Q100" t="n">
         <v>22</v>
       </c>
-      <c r="L100" t="n">
+      <c r="R100" t="n">
         <v>37.93103448275862</v>
       </c>
     </row>
@@ -3127,19 +3961,25 @@
       <c r="E101" s="1" t="n"/>
       <c r="F101" s="1" t="n"/>
       <c r="G101" s="1" t="n"/>
-      <c r="H101" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I101" t="n">
+      <c r="H101" s="1" t="n"/>
+      <c r="I101" s="1" t="n"/>
+      <c r="J101" s="1" t="n"/>
+      <c r="K101" s="1" t="n"/>
+      <c r="L101" s="1" t="n"/>
+      <c r="M101" s="1" t="n"/>
+      <c r="N101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O101" t="n">
         <v>36</v>
       </c>
-      <c r="J101" t="n">
+      <c r="P101" t="n">
         <v>62.06896551724138</v>
       </c>
-      <c r="K101" t="n">
+      <c r="Q101" t="n">
         <v>58</v>
       </c>
-      <c r="L101" t="n">
+      <c r="R101" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3160,24 +4000,42 @@
         <v>1.083624669450832</v>
       </c>
       <c r="F102" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>-1.15353593844766</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I102" s="1" t="n">
         <v>5.5</v>
       </c>
-      <c r="G102" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H102" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
+      <c r="J102" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3189,19 +4047,25 @@
       <c r="E103" s="1" t="n"/>
       <c r="F103" s="1" t="n"/>
       <c r="G103" s="1" t="n"/>
-      <c r="H103" s="1" t="n">
+      <c r="H103" s="1" t="n"/>
+      <c r="I103" s="1" t="n"/>
+      <c r="J103" s="1" t="n"/>
+      <c r="K103" s="1" t="n"/>
+      <c r="L103" s="1" t="n"/>
+      <c r="M103" s="1" t="n"/>
+      <c r="N103" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3213,19 +4077,25 @@
       <c r="E104" s="1" t="n"/>
       <c r="F104" s="1" t="n"/>
       <c r="G104" s="1" t="n"/>
-      <c r="H104" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
+      <c r="H104" s="1" t="n"/>
+      <c r="I104" s="1" t="n"/>
+      <c r="J104" s="1" t="n"/>
+      <c r="K104" s="1" t="n"/>
+      <c r="L104" s="1" t="n"/>
+      <c r="M104" s="1" t="n"/>
+      <c r="N104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="K104" t="n">
-        <v>1</v>
-      </c>
-      <c r="L104" t="n">
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
         <v>8.333333333333332</v>
       </c>
     </row>
@@ -3237,19 +4107,25 @@
       <c r="E105" s="1" t="n"/>
       <c r="F105" s="1" t="n"/>
       <c r="G105" s="1" t="n"/>
-      <c r="H105" s="1" t="n">
+      <c r="H105" s="1" t="n"/>
+      <c r="I105" s="1" t="n"/>
+      <c r="J105" s="1" t="n"/>
+      <c r="K105" s="1" t="n"/>
+      <c r="L105" s="1" t="n"/>
+      <c r="M105" s="1" t="n"/>
+      <c r="N105" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J105" t="n">
+      <c r="O105" t="n">
+        <v>3</v>
+      </c>
+      <c r="P105" t="n">
         <v>25</v>
       </c>
-      <c r="K105" t="n">
+      <c r="Q105" t="n">
         <v>4</v>
       </c>
-      <c r="L105" t="n">
+      <c r="R105" t="n">
         <v>33.33333333333333</v>
       </c>
     </row>
@@ -3261,19 +4137,25 @@
       <c r="E106" s="1" t="n"/>
       <c r="F106" s="1" t="n"/>
       <c r="G106" s="1" t="n"/>
-      <c r="H106" s="1" t="n">
+      <c r="H106" s="1" t="n"/>
+      <c r="I106" s="1" t="n"/>
+      <c r="J106" s="1" t="n"/>
+      <c r="K106" s="1" t="n"/>
+      <c r="L106" s="1" t="n"/>
+      <c r="M106" s="1" t="n"/>
+      <c r="N106" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I106" t="n">
+      <c r="O106" t="n">
         <v>2</v>
       </c>
-      <c r="J106" t="n">
+      <c r="P106" t="n">
         <v>16.66666666666666</v>
       </c>
-      <c r="K106" t="n">
-        <v>6</v>
-      </c>
-      <c r="L106" t="n">
+      <c r="Q106" t="n">
+        <v>6</v>
+      </c>
+      <c r="R106" t="n">
         <v>49.99999999999999</v>
       </c>
     </row>
@@ -3285,19 +4167,25 @@
       <c r="E107" s="1" t="n"/>
       <c r="F107" s="1" t="n"/>
       <c r="G107" s="1" t="n"/>
-      <c r="H107" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
+      <c r="H107" s="1" t="n"/>
+      <c r="I107" s="1" t="n"/>
+      <c r="J107" s="1" t="n"/>
+      <c r="K107" s="1" t="n"/>
+      <c r="L107" s="1" t="n"/>
+      <c r="M107" s="1" t="n"/>
+      <c r="N107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O107" t="n">
+        <v>6</v>
+      </c>
+      <c r="P107" t="n">
         <v>50</v>
       </c>
-      <c r="K107" t="n">
+      <c r="Q107" t="n">
         <v>12</v>
       </c>
-      <c r="L107" t="n">
+      <c r="R107" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3322,24 +4210,42 @@
         <v>1.35432896672366</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>6</v>
+        <v>-1.737348335805541</v>
       </c>
       <c r="H108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6</v>
-      </c>
-      <c r="J108" t="n">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>6</v>
+      </c>
+      <c r="P108" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="K108" t="n">
-        <v>6</v>
-      </c>
-      <c r="L108" t="n">
+      <c r="Q108" t="n">
+        <v>6</v>
+      </c>
+      <c r="R108" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
@@ -3351,19 +4257,25 @@
       <c r="E109" s="1" t="n"/>
       <c r="F109" s="1" t="n"/>
       <c r="G109" s="1" t="n"/>
-      <c r="H109" s="1" t="n">
+      <c r="H109" s="1" t="n"/>
+      <c r="I109" s="1" t="n"/>
+      <c r="J109" s="1" t="n"/>
+      <c r="K109" s="1" t="n"/>
+      <c r="L109" s="1" t="n"/>
+      <c r="M109" s="1" t="n"/>
+      <c r="N109" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3375,19 +4287,25 @@
       <c r="E110" s="1" t="n"/>
       <c r="F110" s="1" t="n"/>
       <c r="G110" s="1" t="n"/>
-      <c r="H110" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I110" t="n">
+      <c r="H110" s="1" t="n"/>
+      <c r="I110" s="1" t="n"/>
+      <c r="J110" s="1" t="n"/>
+      <c r="K110" s="1" t="n"/>
+      <c r="L110" s="1" t="n"/>
+      <c r="M110" s="1" t="n"/>
+      <c r="N110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="n">
         <v>4</v>
       </c>
-      <c r="J110" t="n">
+      <c r="P110" t="n">
         <v>3.92156862745098</v>
       </c>
-      <c r="K110" t="n">
+      <c r="Q110" t="n">
         <v>10</v>
       </c>
-      <c r="L110" t="n">
+      <c r="R110" t="n">
         <v>9.80392156862745</v>
       </c>
     </row>
@@ -3399,19 +4317,25 @@
       <c r="E111" s="1" t="n"/>
       <c r="F111" s="1" t="n"/>
       <c r="G111" s="1" t="n"/>
-      <c r="H111" s="1" t="n">
+      <c r="H111" s="1" t="n"/>
+      <c r="I111" s="1" t="n"/>
+      <c r="J111" s="1" t="n"/>
+      <c r="K111" s="1" t="n"/>
+      <c r="L111" s="1" t="n"/>
+      <c r="M111" s="1" t="n"/>
+      <c r="N111" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I111" t="n">
+      <c r="O111" t="n">
         <v>12</v>
       </c>
-      <c r="J111" t="n">
+      <c r="P111" t="n">
         <v>11.76470588235294</v>
       </c>
-      <c r="K111" t="n">
+      <c r="Q111" t="n">
         <v>22</v>
       </c>
-      <c r="L111" t="n">
+      <c r="R111" t="n">
         <v>21.56862745098039</v>
       </c>
     </row>
@@ -3423,19 +4347,25 @@
       <c r="E112" s="1" t="n"/>
       <c r="F112" s="1" t="n"/>
       <c r="G112" s="1" t="n"/>
-      <c r="H112" s="1" t="n">
+      <c r="H112" s="1" t="n"/>
+      <c r="I112" s="1" t="n"/>
+      <c r="J112" s="1" t="n"/>
+      <c r="K112" s="1" t="n"/>
+      <c r="L112" s="1" t="n"/>
+      <c r="M112" s="1" t="n"/>
+      <c r="N112" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I112" t="n">
+      <c r="O112" t="n">
         <v>14</v>
       </c>
-      <c r="J112" t="n">
+      <c r="P112" t="n">
         <v>13.72549019607843</v>
       </c>
-      <c r="K112" t="n">
+      <c r="Q112" t="n">
         <v>36</v>
       </c>
-      <c r="L112" t="n">
+      <c r="R112" t="n">
         <v>35.29411764705883</v>
       </c>
     </row>
@@ -3447,19 +4377,25 @@
       <c r="E113" s="1" t="n"/>
       <c r="F113" s="1" t="n"/>
       <c r="G113" s="1" t="n"/>
-      <c r="H113" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I113" t="n">
+      <c r="H113" s="1" t="n"/>
+      <c r="I113" s="1" t="n"/>
+      <c r="J113" s="1" t="n"/>
+      <c r="K113" s="1" t="n"/>
+      <c r="L113" s="1" t="n"/>
+      <c r="M113" s="1" t="n"/>
+      <c r="N113" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O113" t="n">
         <v>66</v>
       </c>
-      <c r="J113" t="n">
+      <c r="P113" t="n">
         <v>64.70588235294117</v>
       </c>
-      <c r="K113" t="n">
+      <c r="Q113" t="n">
         <v>102</v>
       </c>
-      <c r="L113" t="n">
+      <c r="R113" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3477,27 +4413,45 @@
         <v>5.772727272727272</v>
       </c>
       <c r="E114" s="1" t="n">
-        <v>0.6047731215432993</v>
+        <v>0.6047731215432994</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G114" s="1" t="n">
-        <v>6</v>
+        <v>-1.127394980911643</v>
       </c>
       <c r="H114" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
+        <v>6</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3509,19 +4463,25 @@
       <c r="E115" s="1" t="n"/>
       <c r="F115" s="1" t="n"/>
       <c r="G115" s="1" t="n"/>
-      <c r="H115" s="1" t="n">
+      <c r="H115" s="1" t="n"/>
+      <c r="I115" s="1" t="n"/>
+      <c r="J115" s="1" t="n"/>
+      <c r="K115" s="1" t="n"/>
+      <c r="L115" s="1" t="n"/>
+      <c r="M115" s="1" t="n"/>
+      <c r="N115" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3533,19 +4493,25 @@
       <c r="E116" s="1" t="n"/>
       <c r="F116" s="1" t="n"/>
       <c r="G116" s="1" t="n"/>
-      <c r="H116" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
+      <c r="H116" s="1" t="n"/>
+      <c r="I116" s="1" t="n"/>
+      <c r="J116" s="1" t="n"/>
+      <c r="K116" s="1" t="n"/>
+      <c r="L116" s="1" t="n"/>
+      <c r="M116" s="1" t="n"/>
+      <c r="N116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,19 +4523,25 @@
       <c r="E117" s="1" t="n"/>
       <c r="F117" s="1" t="n"/>
       <c r="G117" s="1" t="n"/>
-      <c r="H117" s="1" t="n">
+      <c r="H117" s="1" t="n"/>
+      <c r="I117" s="1" t="n"/>
+      <c r="J117" s="1" t="n"/>
+      <c r="K117" s="1" t="n"/>
+      <c r="L117" s="1" t="n"/>
+      <c r="M117" s="1" t="n"/>
+      <c r="N117" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I117" t="n">
+      <c r="O117" t="n">
         <v>4</v>
       </c>
-      <c r="J117" t="n">
+      <c r="P117" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="K117" t="n">
+      <c r="Q117" t="n">
         <v>4</v>
       </c>
-      <c r="L117" t="n">
+      <c r="R117" t="n">
         <v>9.090909090909092</v>
       </c>
     </row>
@@ -3581,19 +4553,25 @@
       <c r="E118" s="1" t="n"/>
       <c r="F118" s="1" t="n"/>
       <c r="G118" s="1" t="n"/>
-      <c r="H118" s="1" t="n">
+      <c r="H118" s="1" t="n"/>
+      <c r="I118" s="1" t="n"/>
+      <c r="J118" s="1" t="n"/>
+      <c r="K118" s="1" t="n"/>
+      <c r="L118" s="1" t="n"/>
+      <c r="M118" s="1" t="n"/>
+      <c r="N118" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I118" t="n">
+      <c r="O118" t="n">
         <v>2</v>
       </c>
-      <c r="J118" t="n">
+      <c r="P118" t="n">
         <v>4.545454545454546</v>
       </c>
-      <c r="K118" t="n">
-        <v>6</v>
-      </c>
-      <c r="L118" t="n">
+      <c r="Q118" t="n">
+        <v>6</v>
+      </c>
+      <c r="R118" t="n">
         <v>13.63636363636364</v>
       </c>
     </row>
@@ -3605,19 +4583,25 @@
       <c r="E119" s="1" t="n"/>
       <c r="F119" s="1" t="n"/>
       <c r="G119" s="1" t="n"/>
-      <c r="H119" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I119" t="n">
+      <c r="H119" s="1" t="n"/>
+      <c r="I119" s="1" t="n"/>
+      <c r="J119" s="1" t="n"/>
+      <c r="K119" s="1" t="n"/>
+      <c r="L119" s="1" t="n"/>
+      <c r="M119" s="1" t="n"/>
+      <c r="N119" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O119" t="n">
         <v>38</v>
       </c>
-      <c r="J119" t="n">
+      <c r="P119" t="n">
         <v>86.36363636363636</v>
       </c>
-      <c r="K119" t="n">
+      <c r="Q119" t="n">
         <v>44</v>
       </c>
-      <c r="L119" t="n">
+      <c r="R119" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3639,27 +4623,45 @@
         <v>5.809917355371901</v>
       </c>
       <c r="E120" s="1" t="n">
-        <v>0.5513325929022304</v>
+        <v>0.5513325929022306</v>
       </c>
       <c r="F120" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>6</v>
+        <v>-1.03430840335866</v>
       </c>
       <c r="H120" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
+        <v>6</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3671,19 +4673,25 @@
       <c r="E121" s="1" t="n"/>
       <c r="F121" s="1" t="n"/>
       <c r="G121" s="1" t="n"/>
-      <c r="H121" s="1" t="n">
+      <c r="H121" s="1" t="n"/>
+      <c r="I121" s="1" t="n"/>
+      <c r="J121" s="1" t="n"/>
+      <c r="K121" s="1" t="n"/>
+      <c r="L121" s="1" t="n"/>
+      <c r="M121" s="1" t="n"/>
+      <c r="N121" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3695,19 +4703,25 @@
       <c r="E122" s="1" t="n"/>
       <c r="F122" s="1" t="n"/>
       <c r="G122" s="1" t="n"/>
-      <c r="H122" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I122" t="n">
+      <c r="H122" s="1" t="n"/>
+      <c r="I122" s="1" t="n"/>
+      <c r="J122" s="1" t="n"/>
+      <c r="K122" s="1" t="n"/>
+      <c r="L122" s="1" t="n"/>
+      <c r="M122" s="1" t="n"/>
+      <c r="N122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O122" t="n">
         <v>4</v>
       </c>
-      <c r="J122" t="n">
+      <c r="P122" t="n">
         <v>1.652892561983471</v>
       </c>
-      <c r="K122" t="n">
+      <c r="Q122" t="n">
         <v>4</v>
       </c>
-      <c r="L122" t="n">
+      <c r="R122" t="n">
         <v>1.652892561983471</v>
       </c>
     </row>
@@ -3719,19 +4733,25 @@
       <c r="E123" s="1" t="n"/>
       <c r="F123" s="1" t="n"/>
       <c r="G123" s="1" t="n"/>
-      <c r="H123" s="1" t="n">
+      <c r="H123" s="1" t="n"/>
+      <c r="I123" s="1" t="n"/>
+      <c r="J123" s="1" t="n"/>
+      <c r="K123" s="1" t="n"/>
+      <c r="L123" s="1" t="n"/>
+      <c r="M123" s="1" t="n"/>
+      <c r="N123" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I123" t="n">
-        <v>6</v>
-      </c>
-      <c r="J123" t="n">
+      <c r="O123" t="n">
+        <v>6</v>
+      </c>
+      <c r="P123" t="n">
         <v>2.479338842975207</v>
       </c>
-      <c r="K123" t="n">
+      <c r="Q123" t="n">
         <v>10</v>
       </c>
-      <c r="L123" t="n">
+      <c r="R123" t="n">
         <v>4.132231404958678</v>
       </c>
     </row>
@@ -3743,19 +4763,25 @@
       <c r="E124" s="1" t="n"/>
       <c r="F124" s="1" t="n"/>
       <c r="G124" s="1" t="n"/>
-      <c r="H124" s="1" t="n">
+      <c r="H124" s="1" t="n"/>
+      <c r="I124" s="1" t="n"/>
+      <c r="J124" s="1" t="n"/>
+      <c r="K124" s="1" t="n"/>
+      <c r="L124" s="1" t="n"/>
+      <c r="M124" s="1" t="n"/>
+      <c r="N124" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I124" t="n">
+      <c r="O124" t="n">
         <v>22</v>
       </c>
-      <c r="J124" t="n">
+      <c r="P124" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="K124" t="n">
+      <c r="Q124" t="n">
         <v>32</v>
       </c>
-      <c r="L124" t="n">
+      <c r="R124" t="n">
         <v>13.22314049586777</v>
       </c>
     </row>
@@ -3767,19 +4793,25 @@
       <c r="E125" s="1" t="n"/>
       <c r="F125" s="1" t="n"/>
       <c r="G125" s="1" t="n"/>
-      <c r="H125" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I125" t="n">
+      <c r="H125" s="1" t="n"/>
+      <c r="I125" s="1" t="n"/>
+      <c r="J125" s="1" t="n"/>
+      <c r="K125" s="1" t="n"/>
+      <c r="L125" s="1" t="n"/>
+      <c r="M125" s="1" t="n"/>
+      <c r="N125" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O125" t="n">
         <v>210</v>
       </c>
-      <c r="J125" t="n">
+      <c r="P125" t="n">
         <v>86.77685950413223</v>
       </c>
-      <c r="K125" t="n">
+      <c r="Q125" t="n">
         <v>242</v>
       </c>
-      <c r="L125" t="n">
+      <c r="R125" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3800,24 +4832,42 @@
         <v>1.586400537905439</v>
       </c>
       <c r="F126" s="1" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>-0.2363841861117376</v>
+      </c>
+      <c r="H126" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G126" s="1" t="n">
+      <c r="I126" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M126" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="n">
         <v>2</v>
       </c>
-      <c r="J126" t="n">
+      <c r="P126" t="n">
         <v>12.5</v>
       </c>
-      <c r="K126" t="n">
+      <c r="Q126" t="n">
         <v>2</v>
       </c>
-      <c r="L126" t="n">
+      <c r="R126" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -3829,19 +4879,25 @@
       <c r="E127" s="1" t="n"/>
       <c r="F127" s="1" t="n"/>
       <c r="G127" s="1" t="n"/>
-      <c r="H127" s="1" t="n">
+      <c r="H127" s="1" t="n"/>
+      <c r="I127" s="1" t="n"/>
+      <c r="J127" s="1" t="n"/>
+      <c r="K127" s="1" t="n"/>
+      <c r="L127" s="1" t="n"/>
+      <c r="M127" s="1" t="n"/>
+      <c r="N127" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3853,19 +4909,25 @@
       <c r="E128" s="1" t="n"/>
       <c r="F128" s="1" t="n"/>
       <c r="G128" s="1" t="n"/>
-      <c r="H128" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
+      <c r="H128" s="1" t="n"/>
+      <c r="I128" s="1" t="n"/>
+      <c r="J128" s="1" t="n"/>
+      <c r="K128" s="1" t="n"/>
+      <c r="L128" s="1" t="n"/>
+      <c r="M128" s="1" t="n"/>
+      <c r="N128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3877,19 +4939,25 @@
       <c r="E129" s="1" t="n"/>
       <c r="F129" s="1" t="n"/>
       <c r="G129" s="1" t="n"/>
-      <c r="H129" s="1" t="n">
+      <c r="H129" s="1" t="n"/>
+      <c r="I129" s="1" t="n"/>
+      <c r="J129" s="1" t="n"/>
+      <c r="K129" s="1" t="n"/>
+      <c r="L129" s="1" t="n"/>
+      <c r="M129" s="1" t="n"/>
+      <c r="N129" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3901,19 +4969,25 @@
       <c r="E130" s="1" t="n"/>
       <c r="F130" s="1" t="n"/>
       <c r="G130" s="1" t="n"/>
-      <c r="H130" s="1" t="n">
+      <c r="H130" s="1" t="n"/>
+      <c r="I130" s="1" t="n"/>
+      <c r="J130" s="1" t="n"/>
+      <c r="K130" s="1" t="n"/>
+      <c r="L130" s="1" t="n"/>
+      <c r="M130" s="1" t="n"/>
+      <c r="N130" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I130" t="n">
+      <c r="O130" t="n">
         <v>8</v>
       </c>
-      <c r="J130" t="n">
+      <c r="P130" t="n">
         <v>50</v>
       </c>
-      <c r="K130" t="n">
+      <c r="Q130" t="n">
         <v>10</v>
       </c>
-      <c r="L130" t="n">
+      <c r="R130" t="n">
         <v>62.5</v>
       </c>
     </row>
@@ -3925,24 +4999,30 @@
       <c r="E131" s="1" t="n"/>
       <c r="F131" s="1" t="n"/>
       <c r="G131" s="1" t="n"/>
-      <c r="H131" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I131" t="n">
-        <v>6</v>
-      </c>
-      <c r="J131" t="n">
+      <c r="H131" s="1" t="n"/>
+      <c r="I131" s="1" t="n"/>
+      <c r="J131" s="1" t="n"/>
+      <c r="K131" s="1" t="n"/>
+      <c r="L131" s="1" t="n"/>
+      <c r="M131" s="1" t="n"/>
+      <c r="N131" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O131" t="n">
+        <v>6</v>
+      </c>
+      <c r="P131" t="n">
         <v>37.5</v>
       </c>
-      <c r="K131" t="n">
+      <c r="Q131" t="n">
         <v>16</v>
       </c>
-      <c r="L131" t="n">
+      <c r="R131" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="275">
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="A26:A37"/>
@@ -4086,6 +5166,138 @@
     <mergeCell ref="G114:G119"/>
     <mergeCell ref="G120:G125"/>
     <mergeCell ref="G126:G131"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="H32:H37"/>
+    <mergeCell ref="H38:H43"/>
+    <mergeCell ref="H44:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="H60:H65"/>
+    <mergeCell ref="H66:H71"/>
+    <mergeCell ref="H72:H77"/>
+    <mergeCell ref="H78:H83"/>
+    <mergeCell ref="H84:H89"/>
+    <mergeCell ref="H90:H95"/>
+    <mergeCell ref="H96:H101"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="H126:H131"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="I38:I43"/>
+    <mergeCell ref="I44:I49"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="I54:I59"/>
+    <mergeCell ref="I60:I65"/>
+    <mergeCell ref="I66:I71"/>
+    <mergeCell ref="I72:I77"/>
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="I84:I89"/>
+    <mergeCell ref="I90:I95"/>
+    <mergeCell ref="I96:I101"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="I114:I119"/>
+    <mergeCell ref="I120:I125"/>
+    <mergeCell ref="I126:I131"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="J32:J37"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="J44:J49"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="J54:J59"/>
+    <mergeCell ref="J60:J65"/>
+    <mergeCell ref="J66:J71"/>
+    <mergeCell ref="J72:J77"/>
+    <mergeCell ref="J78:J83"/>
+    <mergeCell ref="J84:J89"/>
+    <mergeCell ref="J90:J95"/>
+    <mergeCell ref="J96:J101"/>
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="J114:J119"/>
+    <mergeCell ref="J120:J125"/>
+    <mergeCell ref="J126:J131"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="K14:K19"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="K26:K31"/>
+    <mergeCell ref="K32:K37"/>
+    <mergeCell ref="K38:K43"/>
+    <mergeCell ref="K44:K49"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="K54:K59"/>
+    <mergeCell ref="K60:K65"/>
+    <mergeCell ref="K66:K71"/>
+    <mergeCell ref="K72:K77"/>
+    <mergeCell ref="K78:K83"/>
+    <mergeCell ref="K84:K89"/>
+    <mergeCell ref="K90:K95"/>
+    <mergeCell ref="K96:K101"/>
+    <mergeCell ref="K102:K107"/>
+    <mergeCell ref="K108:K113"/>
+    <mergeCell ref="K114:K119"/>
+    <mergeCell ref="K120:K125"/>
+    <mergeCell ref="K126:K131"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="L20:L25"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="L32:L37"/>
+    <mergeCell ref="L38:L43"/>
+    <mergeCell ref="L44:L49"/>
+    <mergeCell ref="L50:L53"/>
+    <mergeCell ref="L54:L59"/>
+    <mergeCell ref="L60:L65"/>
+    <mergeCell ref="L66:L71"/>
+    <mergeCell ref="L72:L77"/>
+    <mergeCell ref="L78:L83"/>
+    <mergeCell ref="L84:L89"/>
+    <mergeCell ref="L90:L95"/>
+    <mergeCell ref="L96:L101"/>
+    <mergeCell ref="L102:L107"/>
+    <mergeCell ref="L108:L113"/>
+    <mergeCell ref="L114:L119"/>
+    <mergeCell ref="L120:L125"/>
+    <mergeCell ref="L126:L131"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="M32:M37"/>
+    <mergeCell ref="M38:M43"/>
+    <mergeCell ref="M44:M49"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="M54:M59"/>
+    <mergeCell ref="M60:M65"/>
+    <mergeCell ref="M66:M71"/>
+    <mergeCell ref="M72:M77"/>
+    <mergeCell ref="M78:M83"/>
+    <mergeCell ref="M84:M89"/>
+    <mergeCell ref="M90:M95"/>
+    <mergeCell ref="M96:M101"/>
+    <mergeCell ref="M102:M107"/>
+    <mergeCell ref="M108:M113"/>
+    <mergeCell ref="M114:M119"/>
+    <mergeCell ref="M120:M125"/>
+    <mergeCell ref="M126:M131"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -520,7 +520,7 @@
         <v>0.7781887234103485</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0</v>
+        <v>11.23571598304576</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>-1.285035326157877</v>
@@ -726,7 +726,7 @@
         <v>1.196943018930863</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.2083333333333334</v>
+        <v>3.19460914971408</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>-1.692623620282002</v>
@@ -936,7 +936,7 @@
         <v>0.9259536167545084</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.25</v>
+        <v>1.85278833313102</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0.7799766739435925</v>
@@ -1141,10 +1141,8 @@
       <c r="E20" s="1" t="n">
         <v>0.28232985128664</v>
       </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>∞</t>
-        </is>
+      <c r="F20" s="1" t="n">
+        <v>9.123966942148778</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>-0.8854890790353674</v>
@@ -1354,7 +1352,7 @@
         <v>1.196891141239242</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.25</v>
+        <v>4.542526978843609</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>-1.483434994968129</v>
@@ -1560,7 +1558,7 @@
         <v>0.8884465557859782</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0</v>
+        <v>21.80568550068543</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>-0.8213546723518581</v>
@@ -1770,7 +1768,7 @@
         <v>0.7802355903888976</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.25</v>
+        <v>0.07128918632240699</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>-1.676022375550066</v>
@@ -1976,7 +1974,7 @@
         <v>0.6189243203857998</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0</v>
+        <v>2.962378527233237</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>-1.321941619084887</v>
@@ -2182,7 +2180,7 @@
         <v>0.516624418864239</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>0</v>
+        <v>7.431090792863641</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>-1.024751725576108</v>
@@ -2331,10 +2329,8 @@
       <c r="E54" s="1" t="n">
         <v>0.4836934064302512</v>
       </c>
-      <c r="F54" s="1" t="inlineStr">
-        <is>
-          <t>∞</t>
-        </is>
+      <c r="F54" s="1" t="n">
+        <v>10.62123731576916</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>-0.8614272204819716</v>
@@ -2539,10 +2535,8 @@
       <c r="E60" s="1" t="n">
         <v>0.2668802563418118</v>
       </c>
-      <c r="F60" s="1" t="inlineStr">
-        <is>
-          <t>∞</t>
-        </is>
+      <c r="F60" s="1" t="n">
+        <v>10.67039999999998</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>-0.832666399786457</v>
@@ -2752,7 +2746,7 @@
         <v>1.213110041412963</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>0.1666666666666667</v>
+        <v>3.341999482007184</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>-1.772542427261178</v>
@@ -2958,7 +2952,7 @@
         <v>0.8948850498428029</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>0</v>
+        <v>12.74134387819694</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>-1.064249483828396</v>
@@ -3168,7 +3162,7 @@
         <v>0.8381580761249494</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>0.25</v>
+        <v>1.440632388034545</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>-1.616447718240973</v>
@@ -3374,7 +3368,7 @@
         <v>1.173751100162852</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3121145991526229</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>-2.011594375318174</v>
@@ -3584,7 +3578,7 @@
         <v>1.014305676595611</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>0.25</v>
+        <v>3.273217982517787</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>-2.082879062088027</v>
@@ -3794,7 +3788,7 @@
         <v>1.621841245625881</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>0.1388888888888889</v>
+        <v>1.60145185185914</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>-1.785965014732456</v>
@@ -4000,7 +3994,7 @@
         <v>1.083624669450832</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>0.5</v>
+        <v>-0.9241373569198759</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>-1.15353593844766</v>
@@ -4210,7 +4204,7 @@
         <v>1.35432896672366</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>0.25</v>
+        <v>3.288271778038738</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>-1.737348335805541</v>
@@ -4416,7 +4410,7 @@
         <v>0.6047731215432994</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>0</v>
+        <v>4.837807433457783</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>-1.127394980911643</v>
@@ -4626,7 +4620,7 @@
         <v>0.5513325929022306</v>
       </c>
       <c r="F120" s="1" t="n">
-        <v>0</v>
+        <v>11.85595955753712</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>-1.03430840335866</v>
@@ -4832,7 +4826,7 @@
         <v>1.586400537905439</v>
       </c>
       <c r="F126" s="1" t="n">
-        <v>0.1666666666666667</v>
+        <v>3.53610864377936</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>-0.2363841861117376</v>

--- a/output3.xlsx
+++ b/output3.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,7 +420,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Valoraciones</t>
+          <t>Nº Valoraciones</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -435,7 +435,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Curtosis</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -460,40 +460,35 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Rango Intercuartil</t>
+          <t>Q3-Q1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P(90) - P(10)</t>
+          <t>Moda</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Moda</t>
+          <t>Opinión del 1 al 6</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Opinión del 1 al 6</t>
+          <t>fi</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>fi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>hi</t>
+          <t>Fi</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Fi</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Hi</t>
         </is>
@@ -523,7 +518,7 @@
         <v>11.23571598304576</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>-1.285035326157877</v>
+        <v>-3.022403087123329</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>6</v>
@@ -538,24 +533,21 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
       </c>
       <c r="O2" t="n">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.7936507936507936</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
         <v>0.7936507936507936</v>
       </c>
     </row>
@@ -572,10 +564,12 @@
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
-      <c r="M3" s="1" t="n"/>
-      <c r="N3" s="1" t="n">
+      <c r="M3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -583,9 +577,6 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,20 +593,19 @@
       <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="n"/>
-      <c r="N4" s="1" t="n">
-        <v>3</v>
+      <c r="M4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="P4" t="n">
-        <v>1.587301587301587</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" t="n">
         <v>2.380952380952381</v>
       </c>
     </row>
@@ -632,20 +622,19 @@
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
       <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="n"/>
-      <c r="N5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N5" t="n">
+        <v>16</v>
+      </c>
       <c r="O5" t="n">
-        <v>16</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="P5" t="n">
-        <v>6.349206349206349</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="n">
-        <v>22</v>
-      </c>
-      <c r="R5" t="n">
         <v>8.730158730158729</v>
       </c>
     </row>
@@ -662,20 +651,19 @@
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="n"/>
-      <c r="N6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N6" t="n">
+        <v>30</v>
+      </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="P6" t="n">
-        <v>11.9047619047619</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="n">
-        <v>52</v>
-      </c>
-      <c r="R6" t="n">
         <v>20.63492063492063</v>
       </c>
     </row>
@@ -692,20 +680,19 @@
       <c r="J7" s="1" t="n"/>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="n"/>
-      <c r="N7" s="1" t="n">
-        <v>6</v>
+      <c r="M7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>200</v>
       </c>
       <c r="O7" t="n">
-        <v>200</v>
+        <v>79.36507936507937</v>
       </c>
       <c r="P7" t="n">
-        <v>79.36507936507937</v>
+        <v>252</v>
       </c>
       <c r="Q7" t="n">
-        <v>252</v>
-      </c>
-      <c r="R7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -729,7 +716,7 @@
         <v>3.19460914971408</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>-1.692623620282002</v>
+        <v>-1.888191180501754</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>5</v>
@@ -744,24 +731,21 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>2.399999999999999</v>
+        <v>6</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>2.597402597402597</v>
+      </c>
+      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.597402597402597</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
         <v>2.597402597402597</v>
       </c>
     </row>
@@ -778,10 +762,12 @@
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="n"/>
-      <c r="N9" s="1" t="n">
+      <c r="M9" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
@@ -789,9 +775,6 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -808,20 +791,19 @@
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="n"/>
-      <c r="N10" s="1" t="n">
-        <v>3</v>
+      <c r="M10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>7.792207792207792</v>
       </c>
       <c r="P10" t="n">
-        <v>7.792207792207792</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
-      </c>
-      <c r="R10" t="n">
         <v>10.38961038961039</v>
       </c>
     </row>
@@ -838,20 +820,19 @@
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="n"/>
-      <c r="N11" s="1" t="n">
+      <c r="M11" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="P11" t="n">
-        <v>10.38961038961039</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
-        <v>16</v>
-      </c>
-      <c r="R11" t="n">
         <v>20.77922077922078</v>
       </c>
     </row>
@@ -868,20 +849,19 @@
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="n"/>
-      <c r="N12" s="1" t="n">
+      <c r="M12" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>10.38961038961039</v>
       </c>
       <c r="P12" t="n">
-        <v>10.38961038961039</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>24</v>
-      </c>
-      <c r="R12" t="n">
         <v>31.16883116883117</v>
       </c>
     </row>
@@ -898,20 +878,19 @@
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n">
-        <v>6</v>
+      <c r="M13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>53</v>
       </c>
       <c r="O13" t="n">
-        <v>53</v>
+        <v>68.83116883116884</v>
       </c>
       <c r="P13" t="n">
-        <v>68.83116883116884</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="n">
-        <v>77</v>
-      </c>
-      <c r="R13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -939,7 +918,7 @@
         <v>1.85278833313102</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.7799766739435925</v>
+        <v>-1.364493589010869</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>5</v>
@@ -954,13 +933,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -969,9 +948,6 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -988,20 +964,19 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
-      <c r="N15" s="1" t="n">
+      <c r="M15" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
       <c r="O15" t="n">
+        <v>1.851851851851852</v>
+      </c>
+      <c r="P15" t="n">
         <v>2</v>
       </c>
-      <c r="P15" t="n">
-        <v>1.851851851851852</v>
-      </c>
       <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
         <v>1.851851851851852</v>
       </c>
     </row>
@@ -1018,20 +993,19 @@
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n">
-        <v>3</v>
+      <c r="M16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="P16" t="n">
-        <v>3.703703703703703</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
-      </c>
-      <c r="R16" t="n">
         <v>5.555555555555555</v>
       </c>
     </row>
@@ -1048,20 +1022,19 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
-      <c r="N17" s="1" t="n">
+      <c r="M17" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N17" t="n">
+        <v>12</v>
+      </c>
       <c r="O17" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="P17" t="n">
-        <v>11.11111111111111</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
-      </c>
-      <c r="R17" t="n">
         <v>16.66666666666666</v>
       </c>
     </row>
@@ -1078,20 +1051,19 @@
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="n"/>
-      <c r="N18" s="1" t="n">
+      <c r="M18" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N18" t="n">
+        <v>38</v>
+      </c>
       <c r="O18" t="n">
-        <v>38</v>
+        <v>35.18518518518518</v>
       </c>
       <c r="P18" t="n">
-        <v>35.18518518518518</v>
+        <v>56</v>
       </c>
       <c r="Q18" t="n">
-        <v>56</v>
-      </c>
-      <c r="R18" t="n">
         <v>51.85185185185185</v>
       </c>
     </row>
@@ -1108,20 +1080,19 @@
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
-      <c r="M19" s="1" t="n"/>
-      <c r="N19" s="1" t="n">
-        <v>6</v>
+      <c r="M19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>52</v>
       </c>
       <c r="O19" t="n">
-        <v>52</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="P19" t="n">
-        <v>48.14814814814815</v>
+        <v>108</v>
       </c>
       <c r="Q19" t="n">
-        <v>108</v>
-      </c>
-      <c r="R19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1145,7 +1116,7 @@
         <v>9.123966942148778</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>-0.8854890790353674</v>
+        <v>-3.219960287401352</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>6</v>
@@ -1160,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1175,9 +1146,6 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1194,10 +1162,12 @@
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
       <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
-      <c r="N21" s="1" t="n">
+      <c r="M21" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
@@ -1205,9 +1175,6 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1224,9 +1191,11 @@
       <c r="J22" s="1" t="n"/>
       <c r="K22" s="1" t="n"/>
       <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
-      <c r="N22" s="1" t="n">
-        <v>3</v>
+      <c r="M22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1235,9 +1204,6 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1254,10 +1220,12 @@
       <c r="J23" s="1" t="n"/>
       <c r="K23" s="1" t="n"/>
       <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
-      <c r="N23" s="1" t="n">
+      <c r="M23" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
@@ -1265,9 +1233,6 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,20 +1249,19 @@
       <c r="J24" s="1" t="n"/>
       <c r="K24" s="1" t="n"/>
       <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
-      <c r="N24" s="1" t="n">
+      <c r="M24" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
       <c r="O24" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="P24" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
-        <v>8.333333333333332</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" t="n">
         <v>8.333333333333332</v>
       </c>
     </row>
@@ -1314,20 +1278,19 @@
       <c r="J25" s="1" t="n"/>
       <c r="K25" s="1" t="n"/>
       <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n"/>
-      <c r="N25" s="1" t="n">
-        <v>6</v>
+      <c r="M25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>22</v>
       </c>
       <c r="O25" t="n">
-        <v>22</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="P25" t="n">
-        <v>91.66666666666666</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="n">
-        <v>24</v>
-      </c>
-      <c r="R25" t="n">
         <v>99.99999999999999</v>
       </c>
     </row>
@@ -1355,7 +1318,7 @@
         <v>4.542526978843609</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>-1.483434994968129</v>
+        <v>-2.246310130225651</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>5</v>
@@ -1370,24 +1333,21 @@
         <v>1</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>3.061224489795918</v>
       </c>
       <c r="P26" t="n">
-        <v>3.061224489795918</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="n">
-        <v>6</v>
-      </c>
-      <c r="R26" t="n">
         <v>3.061224489795918</v>
       </c>
     </row>
@@ -1404,20 +1364,19 @@
       <c r="J27" s="1" t="n"/>
       <c r="K27" s="1" t="n"/>
       <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n"/>
-      <c r="N27" s="1" t="n">
+      <c r="M27" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="P27" t="n">
-        <v>1.020408163265306</v>
+        <v>8</v>
       </c>
       <c r="Q27" t="n">
-        <v>8</v>
-      </c>
-      <c r="R27" t="n">
         <v>4.081632653061225</v>
       </c>
     </row>
@@ -1434,20 +1393,19 @@
       <c r="J28" s="1" t="n"/>
       <c r="K28" s="1" t="n"/>
       <c r="L28" s="1" t="n"/>
-      <c r="M28" s="1" t="n"/>
-      <c r="N28" s="1" t="n">
-        <v>3</v>
+      <c r="M28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>10</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="P28" t="n">
-        <v>5.102040816326531</v>
+        <v>18</v>
       </c>
       <c r="Q28" t="n">
-        <v>18</v>
-      </c>
-      <c r="R28" t="n">
         <v>9.183673469387756</v>
       </c>
     </row>
@@ -1464,20 +1422,19 @@
       <c r="J29" s="1" t="n"/>
       <c r="K29" s="1" t="n"/>
       <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
-      <c r="N29" s="1" t="n">
+      <c r="M29" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N29" t="n">
+        <v>14</v>
+      </c>
       <c r="O29" t="n">
-        <v>14</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="P29" t="n">
-        <v>7.142857142857142</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="n">
-        <v>32</v>
-      </c>
-      <c r="R29" t="n">
         <v>16.3265306122449</v>
       </c>
     </row>
@@ -1494,20 +1451,19 @@
       <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="n"/>
       <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
-      <c r="N30" s="1" t="n">
+      <c r="M30" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N30" t="n">
+        <v>20</v>
+      </c>
       <c r="O30" t="n">
-        <v>20</v>
+        <v>10.20408163265306</v>
       </c>
       <c r="P30" t="n">
-        <v>10.20408163265306</v>
+        <v>52</v>
       </c>
       <c r="Q30" t="n">
-        <v>52</v>
-      </c>
-      <c r="R30" t="n">
         <v>26.53061224489796</v>
       </c>
     </row>
@@ -1524,20 +1480,19 @@
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
-      <c r="M31" s="1" t="n"/>
-      <c r="N31" s="1" t="n">
-        <v>6</v>
+      <c r="M31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>144</v>
       </c>
       <c r="O31" t="n">
-        <v>144</v>
+        <v>73.46938775510205</v>
       </c>
       <c r="P31" t="n">
-        <v>73.46938775510205</v>
+        <v>196</v>
       </c>
       <c r="Q31" t="n">
-        <v>196</v>
-      </c>
-      <c r="R31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1561,7 +1516,7 @@
         <v>21.80568550068543</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>-0.8213546723518581</v>
+        <v>-4.555034052236083</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>6</v>
@@ -1576,24 +1531,21 @@
         <v>0</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.6999999999999993</v>
+        <v>6</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
       </c>
       <c r="O32" t="n">
+        <v>2.702702702702703</v>
+      </c>
+      <c r="P32" t="n">
         <v>2</v>
       </c>
-      <c r="P32" t="n">
-        <v>2.702702702702703</v>
-      </c>
       <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
         <v>2.702702702702703</v>
       </c>
     </row>
@@ -1610,10 +1562,12 @@
       <c r="J33" s="1" t="n"/>
       <c r="K33" s="1" t="n"/>
       <c r="L33" s="1" t="n"/>
-      <c r="M33" s="1" t="n"/>
-      <c r="N33" s="1" t="n">
+      <c r="M33" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
@@ -1621,9 +1575,6 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1640,9 +1591,11 @@
       <c r="J34" s="1" t="n"/>
       <c r="K34" s="1" t="n"/>
       <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n"/>
-      <c r="N34" s="1" t="n">
-        <v>3</v>
+      <c r="M34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -1651,9 +1604,6 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1670,20 +1620,19 @@
       <c r="J35" s="1" t="n"/>
       <c r="K35" s="1" t="n"/>
       <c r="L35" s="1" t="n"/>
-      <c r="M35" s="1" t="n"/>
-      <c r="N35" s="1" t="n">
+      <c r="M35" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="P35" t="n">
-        <v>2.702702702702703</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
         <v>5.405405405405405</v>
       </c>
     </row>
@@ -1700,20 +1649,19 @@
       <c r="J36" s="1" t="n"/>
       <c r="K36" s="1" t="n"/>
       <c r="L36" s="1" t="n"/>
-      <c r="M36" s="1" t="n"/>
-      <c r="N36" s="1" t="n">
+      <c r="M36" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="P36" t="n">
-        <v>5.405405405405405</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>8</v>
-      </c>
-      <c r="R36" t="n">
         <v>10.81081081081081</v>
       </c>
     </row>
@@ -1730,20 +1678,19 @@
       <c r="J37" s="1" t="n"/>
       <c r="K37" s="1" t="n"/>
       <c r="L37" s="1" t="n"/>
-      <c r="M37" s="1" t="n"/>
-      <c r="N37" s="1" t="n">
-        <v>6</v>
+      <c r="M37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>66</v>
       </c>
       <c r="O37" t="n">
-        <v>66</v>
+        <v>89.18918918918919</v>
       </c>
       <c r="P37" t="n">
-        <v>89.18918918918919</v>
+        <v>74</v>
       </c>
       <c r="Q37" t="n">
-        <v>74</v>
-      </c>
-      <c r="R37" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1771,7 +1718,7 @@
         <v>0.07128918632240699</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>-1.676022375550066</v>
+        <v>-1.371619480816437</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>5</v>
@@ -1786,13 +1733,13 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -1801,9 +1748,6 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1820,10 +1764,12 @@
       <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
       <c r="L39" s="1" t="n"/>
-      <c r="M39" s="1" t="n"/>
-      <c r="N39" s="1" t="n">
+      <c r="M39" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
@@ -1831,9 +1777,6 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,9 +1793,11 @@
       <c r="J40" s="1" t="n"/>
       <c r="K40" s="1" t="n"/>
       <c r="L40" s="1" t="n"/>
-      <c r="M40" s="1" t="n"/>
-      <c r="N40" s="1" t="n">
-        <v>3</v>
+      <c r="M40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -1861,9 +1806,6 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1880,20 +1822,19 @@
       <c r="J41" s="1" t="n"/>
       <c r="K41" s="1" t="n"/>
       <c r="L41" s="1" t="n"/>
-      <c r="M41" s="1" t="n"/>
-      <c r="N41" s="1" t="n">
+      <c r="M41" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N41" t="n">
+        <v>28</v>
+      </c>
       <c r="O41" t="n">
+        <v>17.94871794871795</v>
+      </c>
+      <c r="P41" t="n">
         <v>28</v>
       </c>
-      <c r="P41" t="n">
-        <v>17.94871794871795</v>
-      </c>
       <c r="Q41" t="n">
-        <v>28</v>
-      </c>
-      <c r="R41" t="n">
         <v>17.94871794871795</v>
       </c>
     </row>
@@ -1910,20 +1851,19 @@
       <c r="J42" s="1" t="n"/>
       <c r="K42" s="1" t="n"/>
       <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
-      <c r="N42" s="1" t="n">
+      <c r="M42" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N42" t="n">
+        <v>12</v>
+      </c>
       <c r="O42" t="n">
-        <v>12</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="P42" t="n">
-        <v>7.692307692307693</v>
+        <v>40</v>
       </c>
       <c r="Q42" t="n">
-        <v>40</v>
-      </c>
-      <c r="R42" t="n">
         <v>25.64102564102564</v>
       </c>
     </row>
@@ -1940,20 +1880,19 @@
       <c r="J43" s="1" t="n"/>
       <c r="K43" s="1" t="n"/>
       <c r="L43" s="1" t="n"/>
-      <c r="M43" s="1" t="n"/>
-      <c r="N43" s="1" t="n">
-        <v>6</v>
+      <c r="M43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" t="n">
+        <v>116</v>
       </c>
       <c r="O43" t="n">
-        <v>116</v>
+        <v>74.35897435897436</v>
       </c>
       <c r="P43" t="n">
-        <v>74.35897435897436</v>
+        <v>156</v>
       </c>
       <c r="Q43" t="n">
-        <v>156</v>
-      </c>
-      <c r="R43" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1977,7 +1916,7 @@
         <v>2.962378527233237</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>-1.321941619084887</v>
+        <v>-2.100958720365014</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>6</v>
@@ -1992,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2007,9 +1946,6 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,10 +1962,12 @@
       <c r="J45" s="1" t="n"/>
       <c r="K45" s="1" t="n"/>
       <c r="L45" s="1" t="n"/>
-      <c r="M45" s="1" t="n"/>
-      <c r="N45" s="1" t="n">
+      <c r="M45" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
@@ -2037,9 +1975,6 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2056,9 +1991,11 @@
       <c r="J46" s="1" t="n"/>
       <c r="K46" s="1" t="n"/>
       <c r="L46" s="1" t="n"/>
-      <c r="M46" s="1" t="n"/>
-      <c r="N46" s="1" t="n">
-        <v>3</v>
+      <c r="M46" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2067,9 +2004,6 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2086,20 +2020,19 @@
       <c r="J47" s="1" t="n"/>
       <c r="K47" s="1" t="n"/>
       <c r="L47" s="1" t="n"/>
-      <c r="M47" s="1" t="n"/>
-      <c r="N47" s="1" t="n">
+      <c r="M47" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N47" t="n">
+        <v>12</v>
+      </c>
       <c r="O47" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="P47" t="n">
         <v>12</v>
       </c>
-      <c r="P47" t="n">
-        <v>9.090909090909092</v>
-      </c>
       <c r="Q47" t="n">
-        <v>12</v>
-      </c>
-      <c r="R47" t="n">
         <v>9.090909090909092</v>
       </c>
     </row>
@@ -2116,20 +2049,19 @@
       <c r="J48" s="1" t="n"/>
       <c r="K48" s="1" t="n"/>
       <c r="L48" s="1" t="n"/>
-      <c r="M48" s="1" t="n"/>
-      <c r="N48" s="1" t="n">
+      <c r="M48" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N48" t="n">
+        <v>12</v>
+      </c>
       <c r="O48" t="n">
-        <v>12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="P48" t="n">
-        <v>9.090909090909092</v>
+        <v>24</v>
       </c>
       <c r="Q48" t="n">
-        <v>24</v>
-      </c>
-      <c r="R48" t="n">
         <v>18.18181818181818</v>
       </c>
     </row>
@@ -2146,20 +2078,19 @@
       <c r="J49" s="1" t="n"/>
       <c r="K49" s="1" t="n"/>
       <c r="L49" s="1" t="n"/>
-      <c r="M49" s="1" t="n"/>
-      <c r="N49" s="1" t="n">
-        <v>6</v>
+      <c r="M49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N49" t="n">
+        <v>108</v>
       </c>
       <c r="O49" t="n">
-        <v>108</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="P49" t="n">
-        <v>81.81818181818183</v>
+        <v>132</v>
       </c>
       <c r="Q49" t="n">
-        <v>132</v>
-      </c>
-      <c r="R49" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2183,7 +2114,7 @@
         <v>7.431090792863641</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>-1.024751725576108</v>
+        <v>-2.917355390994176</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>6</v>
@@ -2198,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -2213,9 +2144,6 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2232,20 +2160,19 @@
       <c r="J51" s="1" t="n"/>
       <c r="K51" s="1" t="n"/>
       <c r="L51" s="1" t="n"/>
-      <c r="M51" s="1" t="n"/>
-      <c r="N51" s="1" t="n">
+      <c r="M51" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
       <c r="O51" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="P51" t="n">
         <v>4</v>
       </c>
-      <c r="P51" t="n">
-        <v>5.88235294117647</v>
-      </c>
       <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
@@ -2262,20 +2189,19 @@
       <c r="J52" s="1" t="n"/>
       <c r="K52" s="1" t="n"/>
       <c r="L52" s="1" t="n"/>
-      <c r="M52" s="1" t="n"/>
-      <c r="N52" s="1" t="n">
+      <c r="M52" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="P52" t="n">
-        <v>5.88235294117647</v>
+        <v>8</v>
       </c>
       <c r="Q52" t="n">
-        <v>8</v>
-      </c>
-      <c r="R52" t="n">
         <v>11.76470588235294</v>
       </c>
     </row>
@@ -2292,20 +2218,19 @@
       <c r="J53" s="1" t="n"/>
       <c r="K53" s="1" t="n"/>
       <c r="L53" s="1" t="n"/>
-      <c r="M53" s="1" t="n"/>
-      <c r="N53" s="1" t="n">
-        <v>6</v>
+      <c r="M53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53" t="n">
+        <v>60</v>
       </c>
       <c r="O53" t="n">
-        <v>60</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="P53" t="n">
-        <v>88.23529411764706</v>
+        <v>68</v>
       </c>
       <c r="Q53" t="n">
-        <v>68</v>
-      </c>
-      <c r="R53" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2333,7 +2258,7 @@
         <v>10.62123731576916</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.8614272204819716</v>
+        <v>-3.441823610565547</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>6</v>
@@ -2348,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N54" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -2363,9 +2288,6 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2382,10 +2304,12 @@
       <c r="J55" s="1" t="n"/>
       <c r="K55" s="1" t="n"/>
       <c r="L55" s="1" t="n"/>
-      <c r="M55" s="1" t="n"/>
-      <c r="N55" s="1" t="n">
+      <c r="M55" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
@@ -2393,9 +2317,6 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2412,9 +2333,11 @@
       <c r="J56" s="1" t="n"/>
       <c r="K56" s="1" t="n"/>
       <c r="L56" s="1" t="n"/>
-      <c r="M56" s="1" t="n"/>
-      <c r="N56" s="1" t="n">
-        <v>3</v>
+      <c r="M56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -2423,9 +2346,6 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2442,20 +2362,19 @@
       <c r="J57" s="1" t="n"/>
       <c r="K57" s="1" t="n"/>
       <c r="L57" s="1" t="n"/>
-      <c r="M57" s="1" t="n"/>
-      <c r="N57" s="1" t="n">
+      <c r="M57" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N57" t="n">
+        <v>4</v>
+      </c>
       <c r="O57" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="P57" t="n">
         <v>4</v>
       </c>
-      <c r="P57" t="n">
-        <v>5.555555555555555</v>
-      </c>
       <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
         <v>5.555555555555555</v>
       </c>
     </row>
@@ -2472,20 +2391,19 @@
       <c r="J58" s="1" t="n"/>
       <c r="K58" s="1" t="n"/>
       <c r="L58" s="1" t="n"/>
-      <c r="M58" s="1" t="n"/>
-      <c r="N58" s="1" t="n">
+      <c r="M58" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="P58" t="n">
-        <v>2.777777777777778</v>
+        <v>6</v>
       </c>
       <c r="Q58" t="n">
-        <v>6</v>
-      </c>
-      <c r="R58" t="n">
         <v>8.333333333333332</v>
       </c>
     </row>
@@ -2502,20 +2420,19 @@
       <c r="J59" s="1" t="n"/>
       <c r="K59" s="1" t="n"/>
       <c r="L59" s="1" t="n"/>
-      <c r="M59" s="1" t="n"/>
-      <c r="N59" s="1" t="n">
-        <v>6</v>
+      <c r="M59" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N59" t="n">
+        <v>66</v>
       </c>
       <c r="O59" t="n">
-        <v>66</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="P59" t="n">
-        <v>91.66666666666666</v>
+        <v>72</v>
       </c>
       <c r="Q59" t="n">
-        <v>72</v>
-      </c>
-      <c r="R59" t="n">
         <v>99.99999999999999</v>
       </c>
     </row>
@@ -2539,7 +2456,7 @@
         <v>10.67039999999998</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>-0.832666399786457</v>
+        <v>-3.447238895115911</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>6</v>
@@ -2554,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M60" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N60" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -2569,9 +2486,6 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2588,10 +2502,12 @@
       <c r="J61" s="1" t="n"/>
       <c r="K61" s="1" t="n"/>
       <c r="L61" s="1" t="n"/>
-      <c r="M61" s="1" t="n"/>
-      <c r="N61" s="1" t="n">
+      <c r="M61" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
@@ -2599,9 +2515,6 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,9 +2531,11 @@
       <c r="J62" s="1" t="n"/>
       <c r="K62" s="1" t="n"/>
       <c r="L62" s="1" t="n"/>
-      <c r="M62" s="1" t="n"/>
-      <c r="N62" s="1" t="n">
-        <v>3</v>
+      <c r="M62" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -2629,9 +2544,6 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2648,10 +2560,12 @@
       <c r="J63" s="1" t="n"/>
       <c r="K63" s="1" t="n"/>
       <c r="L63" s="1" t="n"/>
-      <c r="M63" s="1" t="n"/>
-      <c r="N63" s="1" t="n">
+      <c r="M63" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
@@ -2659,9 +2573,6 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2678,20 +2589,19 @@
       <c r="J64" s="1" t="n"/>
       <c r="K64" s="1" t="n"/>
       <c r="L64" s="1" t="n"/>
-      <c r="M64" s="1" t="n"/>
-      <c r="N64" s="1" t="n">
+      <c r="M64" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
       <c r="O64" t="n">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="P64" t="n">
         <v>2</v>
       </c>
-      <c r="P64" t="n">
-        <v>7.407407407407407</v>
-      </c>
       <c r="Q64" t="n">
-        <v>2</v>
-      </c>
-      <c r="R64" t="n">
         <v>7.407407407407407</v>
       </c>
     </row>
@@ -2708,20 +2618,19 @@
       <c r="J65" s="1" t="n"/>
       <c r="K65" s="1" t="n"/>
       <c r="L65" s="1" t="n"/>
-      <c r="M65" s="1" t="n"/>
-      <c r="N65" s="1" t="n">
-        <v>6</v>
+      <c r="M65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N65" t="n">
+        <v>25</v>
       </c>
       <c r="O65" t="n">
-        <v>25</v>
+        <v>92.5925925925926</v>
       </c>
       <c r="P65" t="n">
-        <v>92.5925925925926</v>
+        <v>27</v>
       </c>
       <c r="Q65" t="n">
-        <v>27</v>
-      </c>
-      <c r="R65" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2749,7 +2658,7 @@
         <v>3.341999482007184</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>-1.772542427261178</v>
+        <v>-1.943931833238586</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>5</v>
@@ -2764,24 +2673,21 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M66" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N66" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
       </c>
       <c r="O66" t="n">
+        <v>2.890173410404624</v>
+      </c>
+      <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="P66" t="n">
-        <v>2.890173410404624</v>
-      </c>
       <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
         <v>2.890173410404624</v>
       </c>
     </row>
@@ -2798,20 +2704,19 @@
       <c r="J67" s="1" t="n"/>
       <c r="K67" s="1" t="n"/>
       <c r="L67" s="1" t="n"/>
-      <c r="M67" s="1" t="n"/>
-      <c r="N67" s="1" t="n">
+      <c r="M67" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>1.15606936416185</v>
       </c>
       <c r="P67" t="n">
-        <v>1.15606936416185</v>
+        <v>7</v>
       </c>
       <c r="Q67" t="n">
-        <v>7</v>
-      </c>
-      <c r="R67" t="n">
         <v>4.046242774566474</v>
       </c>
     </row>
@@ -2828,20 +2733,19 @@
       <c r="J68" s="1" t="n"/>
       <c r="K68" s="1" t="n"/>
       <c r="L68" s="1" t="n"/>
-      <c r="M68" s="1" t="n"/>
-      <c r="N68" s="1" t="n">
-        <v>3</v>
+      <c r="M68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>12</v>
       </c>
       <c r="O68" t="n">
-        <v>12</v>
+        <v>6.936416184971097</v>
       </c>
       <c r="P68" t="n">
-        <v>6.936416184971097</v>
+        <v>19</v>
       </c>
       <c r="Q68" t="n">
-        <v>19</v>
-      </c>
-      <c r="R68" t="n">
         <v>10.98265895953757</v>
       </c>
     </row>
@@ -2858,20 +2762,19 @@
       <c r="J69" s="1" t="n"/>
       <c r="K69" s="1" t="n"/>
       <c r="L69" s="1" t="n"/>
-      <c r="M69" s="1" t="n"/>
-      <c r="N69" s="1" t="n">
+      <c r="M69" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N69" t="n">
+        <v>11</v>
+      </c>
       <c r="O69" t="n">
-        <v>11</v>
+        <v>6.358381502890173</v>
       </c>
       <c r="P69" t="n">
-        <v>6.358381502890173</v>
+        <v>30</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
-      </c>
-      <c r="R69" t="n">
         <v>17.34104046242775</v>
       </c>
     </row>
@@ -2888,20 +2791,19 @@
       <c r="J70" s="1" t="n"/>
       <c r="K70" s="1" t="n"/>
       <c r="L70" s="1" t="n"/>
-      <c r="M70" s="1" t="n"/>
-      <c r="N70" s="1" t="n">
+      <c r="M70" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N70" t="n">
+        <v>33</v>
+      </c>
       <c r="O70" t="n">
-        <v>33</v>
+        <v>19.07514450867052</v>
       </c>
       <c r="P70" t="n">
-        <v>19.07514450867052</v>
+        <v>63</v>
       </c>
       <c r="Q70" t="n">
-        <v>63</v>
-      </c>
-      <c r="R70" t="n">
         <v>36.41618497109826</v>
       </c>
     </row>
@@ -2918,20 +2820,19 @@
       <c r="J71" s="1" t="n"/>
       <c r="K71" s="1" t="n"/>
       <c r="L71" s="1" t="n"/>
-      <c r="M71" s="1" t="n"/>
-      <c r="N71" s="1" t="n">
-        <v>6</v>
+      <c r="M71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" t="n">
+        <v>110</v>
       </c>
       <c r="O71" t="n">
-        <v>110</v>
+        <v>63.58381502890174</v>
       </c>
       <c r="P71" t="n">
-        <v>63.58381502890174</v>
+        <v>173</v>
       </c>
       <c r="Q71" t="n">
-        <v>173</v>
-      </c>
-      <c r="R71" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2955,7 +2856,7 @@
         <v>12.74134387819694</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>-1.064249483828396</v>
+        <v>-3.36340775681591</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>6</v>
@@ -2970,24 +2871,21 @@
         <v>0</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="P72" t="n">
-        <v>1.587301587301587</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R72" t="n">
         <v>1.587301587301587</v>
       </c>
     </row>
@@ -3004,10 +2902,12 @@
       <c r="J73" s="1" t="n"/>
       <c r="K73" s="1" t="n"/>
       <c r="L73" s="1" t="n"/>
-      <c r="M73" s="1" t="n"/>
-      <c r="N73" s="1" t="n">
+      <c r="M73" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
@@ -3015,9 +2915,6 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,20 +2931,19 @@
       <c r="J74" s="1" t="n"/>
       <c r="K74" s="1" t="n"/>
       <c r="L74" s="1" t="n"/>
-      <c r="M74" s="1" t="n"/>
-      <c r="N74" s="1" t="n">
-        <v>3</v>
+      <c r="M74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="P74" t="n">
-        <v>1.587301587301587</v>
+        <v>2</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
-      </c>
-      <c r="R74" t="n">
         <v>3.174603174603174</v>
       </c>
     </row>
@@ -3064,20 +2960,19 @@
       <c r="J75" s="1" t="n"/>
       <c r="K75" s="1" t="n"/>
       <c r="L75" s="1" t="n"/>
-      <c r="M75" s="1" t="n"/>
-      <c r="N75" s="1" t="n">
+      <c r="M75" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N75" t="n">
+        <v>5</v>
+      </c>
       <c r="O75" t="n">
-        <v>5</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="P75" t="n">
-        <v>7.936507936507936</v>
+        <v>7</v>
       </c>
       <c r="Q75" t="n">
-        <v>7</v>
-      </c>
-      <c r="R75" t="n">
         <v>11.11111111111111</v>
       </c>
     </row>
@@ -3094,20 +2989,19 @@
       <c r="J76" s="1" t="n"/>
       <c r="K76" s="1" t="n"/>
       <c r="L76" s="1" t="n"/>
-      <c r="M76" s="1" t="n"/>
-      <c r="N76" s="1" t="n">
+      <c r="M76" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>3.174603174603174</v>
       </c>
       <c r="P76" t="n">
-        <v>3.174603174603174</v>
+        <v>9</v>
       </c>
       <c r="Q76" t="n">
-        <v>9</v>
-      </c>
-      <c r="R76" t="n">
         <v>14.28571428571428</v>
       </c>
     </row>
@@ -3124,20 +3018,19 @@
       <c r="J77" s="1" t="n"/>
       <c r="K77" s="1" t="n"/>
       <c r="L77" s="1" t="n"/>
-      <c r="M77" s="1" t="n"/>
-      <c r="N77" s="1" t="n">
-        <v>6</v>
+      <c r="M77" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N77" t="n">
+        <v>54</v>
       </c>
       <c r="O77" t="n">
-        <v>54</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="P77" t="n">
-        <v>85.71428571428571</v>
+        <v>63</v>
       </c>
       <c r="Q77" t="n">
-        <v>63</v>
-      </c>
-      <c r="R77" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3165,7 +3058,7 @@
         <v>1.440632388034545</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>-1.616447718240973</v>
+        <v>-1.654028337604011</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>5</v>
@@ -3180,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="L78" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M78" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N78" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -3195,9 +3088,6 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3214,10 +3104,12 @@
       <c r="J79" s="1" t="n"/>
       <c r="K79" s="1" t="n"/>
       <c r="L79" s="1" t="n"/>
-      <c r="M79" s="1" t="n"/>
-      <c r="N79" s="1" t="n">
+      <c r="M79" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
@@ -3225,9 +3117,6 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3244,20 +3133,19 @@
       <c r="J80" s="1" t="n"/>
       <c r="K80" s="1" t="n"/>
       <c r="L80" s="1" t="n"/>
-      <c r="M80" s="1" t="n"/>
-      <c r="N80" s="1" t="n">
-        <v>3</v>
+      <c r="M80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7</v>
       </c>
       <c r="O80" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="P80" t="n">
         <v>7</v>
       </c>
-      <c r="P80" t="n">
-        <v>3.225806451612903</v>
-      </c>
       <c r="Q80" t="n">
-        <v>7</v>
-      </c>
-      <c r="R80" t="n">
         <v>3.225806451612903</v>
       </c>
     </row>
@@ -3274,20 +3162,19 @@
       <c r="J81" s="1" t="n"/>
       <c r="K81" s="1" t="n"/>
       <c r="L81" s="1" t="n"/>
-      <c r="M81" s="1" t="n"/>
-      <c r="N81" s="1" t="n">
+      <c r="M81" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N81" t="n">
+        <v>28</v>
+      </c>
       <c r="O81" t="n">
-        <v>28</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="P81" t="n">
-        <v>12.90322580645161</v>
+        <v>35</v>
       </c>
       <c r="Q81" t="n">
-        <v>35</v>
-      </c>
-      <c r="R81" t="n">
         <v>16.12903225806452</v>
       </c>
     </row>
@@ -3304,20 +3191,19 @@
       <c r="J82" s="1" t="n"/>
       <c r="K82" s="1" t="n"/>
       <c r="L82" s="1" t="n"/>
-      <c r="M82" s="1" t="n"/>
-      <c r="N82" s="1" t="n">
+      <c r="M82" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N82" t="n">
+        <v>21</v>
+      </c>
       <c r="O82" t="n">
-        <v>21</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="P82" t="n">
-        <v>9.67741935483871</v>
+        <v>56</v>
       </c>
       <c r="Q82" t="n">
-        <v>56</v>
-      </c>
-      <c r="R82" t="n">
         <v>25.80645161290322</v>
       </c>
     </row>
@@ -3334,20 +3220,19 @@
       <c r="J83" s="1" t="n"/>
       <c r="K83" s="1" t="n"/>
       <c r="L83" s="1" t="n"/>
-      <c r="M83" s="1" t="n"/>
-      <c r="N83" s="1" t="n">
-        <v>6</v>
+      <c r="M83" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N83" t="n">
+        <v>161</v>
       </c>
       <c r="O83" t="n">
-        <v>161</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="P83" t="n">
-        <v>74.19354838709677</v>
+        <v>217</v>
       </c>
       <c r="Q83" t="n">
-        <v>217</v>
-      </c>
-      <c r="R83" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3371,7 +3256,7 @@
         <v>0.3121145991526229</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>-2.011594375318174</v>
+        <v>-1.275445404431824</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>5</v>
@@ -3386,13 +3271,13 @@
         <v>1</v>
       </c>
       <c r="L84" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M84" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N84" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -3401,9 +3286,6 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3420,20 +3302,19 @@
       <c r="J85" s="1" t="n"/>
       <c r="K85" s="1" t="n"/>
       <c r="L85" s="1" t="n"/>
-      <c r="M85" s="1" t="n"/>
-      <c r="N85" s="1" t="n">
+      <c r="M85" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N85" t="n">
+        <v>6</v>
+      </c>
       <c r="O85" t="n">
-        <v>6</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="P85" t="n">
-        <v>2.777777777777778</v>
+        <v>6</v>
       </c>
       <c r="Q85" t="n">
-        <v>6</v>
-      </c>
-      <c r="R85" t="n">
         <v>2.777777777777778</v>
       </c>
     </row>
@@ -3450,20 +3331,19 @@
       <c r="J86" s="1" t="n"/>
       <c r="K86" s="1" t="n"/>
       <c r="L86" s="1" t="n"/>
-      <c r="M86" s="1" t="n"/>
-      <c r="N86" s="1" t="n">
-        <v>3</v>
+      <c r="M86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>25</v>
       </c>
       <c r="O86" t="n">
-        <v>25</v>
+        <v>11.57407407407407</v>
       </c>
       <c r="P86" t="n">
-        <v>11.57407407407407</v>
+        <v>31</v>
       </c>
       <c r="Q86" t="n">
-        <v>31</v>
-      </c>
-      <c r="R86" t="n">
         <v>14.35185185185185</v>
       </c>
     </row>
@@ -3480,20 +3360,19 @@
       <c r="J87" s="1" t="n"/>
       <c r="K87" s="1" t="n"/>
       <c r="L87" s="1" t="n"/>
-      <c r="M87" s="1" t="n"/>
-      <c r="N87" s="1" t="n">
+      <c r="M87" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N87" t="n">
+        <v>19</v>
+      </c>
       <c r="O87" t="n">
-        <v>19</v>
+        <v>8.796296296296296</v>
       </c>
       <c r="P87" t="n">
-        <v>8.796296296296296</v>
+        <v>50</v>
       </c>
       <c r="Q87" t="n">
-        <v>50</v>
-      </c>
-      <c r="R87" t="n">
         <v>23.14814814814815</v>
       </c>
     </row>
@@ -3510,20 +3389,19 @@
       <c r="J88" s="1" t="n"/>
       <c r="K88" s="1" t="n"/>
       <c r="L88" s="1" t="n"/>
-      <c r="M88" s="1" t="n"/>
-      <c r="N88" s="1" t="n">
+      <c r="M88" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N88" t="n">
+        <v>33</v>
+      </c>
       <c r="O88" t="n">
-        <v>33</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="P88" t="n">
-        <v>15.27777777777778</v>
+        <v>83</v>
       </c>
       <c r="Q88" t="n">
-        <v>83</v>
-      </c>
-      <c r="R88" t="n">
         <v>38.42592592592592</v>
       </c>
     </row>
@@ -3540,20 +3418,19 @@
       <c r="J89" s="1" t="n"/>
       <c r="K89" s="1" t="n"/>
       <c r="L89" s="1" t="n"/>
-      <c r="M89" s="1" t="n"/>
-      <c r="N89" s="1" t="n">
-        <v>6</v>
+      <c r="M89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N89" t="n">
+        <v>133</v>
       </c>
       <c r="O89" t="n">
-        <v>133</v>
+        <v>61.57407407407407</v>
       </c>
       <c r="P89" t="n">
-        <v>61.57407407407407</v>
+        <v>216</v>
       </c>
       <c r="Q89" t="n">
-        <v>216</v>
-      </c>
-      <c r="R89" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3581,7 +3458,7 @@
         <v>3.273217982517787</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>-2.082879062088027</v>
+        <v>-1.683592431020715</v>
       </c>
       <c r="H90" s="1" t="n">
         <v>5</v>
@@ -3596,24 +3473,21 @@
         <v>1</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M90" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N90" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>4</v>
       </c>
       <c r="O90" t="n">
+        <v>1.408450704225352</v>
+      </c>
+      <c r="P90" t="n">
         <v>4</v>
       </c>
-      <c r="P90" t="n">
-        <v>1.408450704225352</v>
-      </c>
       <c r="Q90" t="n">
-        <v>4</v>
-      </c>
-      <c r="R90" t="n">
         <v>1.408450704225352</v>
       </c>
     </row>
@@ -3630,10 +3504,12 @@
       <c r="J91" s="1" t="n"/>
       <c r="K91" s="1" t="n"/>
       <c r="L91" s="1" t="n"/>
-      <c r="M91" s="1" t="n"/>
-      <c r="N91" s="1" t="n">
+      <c r="M91" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
@@ -3641,9 +3517,6 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3660,20 +3533,19 @@
       <c r="J92" s="1" t="n"/>
       <c r="K92" s="1" t="n"/>
       <c r="L92" s="1" t="n"/>
-      <c r="M92" s="1" t="n"/>
-      <c r="N92" s="1" t="n">
-        <v>3</v>
+      <c r="M92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="n">
+        <v>12</v>
       </c>
       <c r="O92" t="n">
-        <v>12</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="P92" t="n">
-        <v>4.225352112676056</v>
+        <v>16</v>
       </c>
       <c r="Q92" t="n">
-        <v>16</v>
-      </c>
-      <c r="R92" t="n">
         <v>5.633802816901408</v>
       </c>
     </row>
@@ -3690,20 +3562,19 @@
       <c r="J93" s="1" t="n"/>
       <c r="K93" s="1" t="n"/>
       <c r="L93" s="1" t="n"/>
-      <c r="M93" s="1" t="n"/>
-      <c r="N93" s="1" t="n">
+      <c r="M93" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N93" t="n">
+        <v>40</v>
+      </c>
       <c r="O93" t="n">
-        <v>40</v>
+        <v>14.08450704225352</v>
       </c>
       <c r="P93" t="n">
-        <v>14.08450704225352</v>
+        <v>56</v>
       </c>
       <c r="Q93" t="n">
-        <v>56</v>
-      </c>
-      <c r="R93" t="n">
         <v>19.71830985915493</v>
       </c>
     </row>
@@ -3720,20 +3591,19 @@
       <c r="J94" s="1" t="n"/>
       <c r="K94" s="1" t="n"/>
       <c r="L94" s="1" t="n"/>
-      <c r="M94" s="1" t="n"/>
-      <c r="N94" s="1" t="n">
+      <c r="M94" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N94" t="n">
+        <v>64</v>
+      </c>
       <c r="O94" t="n">
-        <v>64</v>
+        <v>22.53521126760564</v>
       </c>
       <c r="P94" t="n">
-        <v>22.53521126760564</v>
+        <v>120</v>
       </c>
       <c r="Q94" t="n">
-        <v>120</v>
-      </c>
-      <c r="R94" t="n">
         <v>42.25352112676056</v>
       </c>
     </row>
@@ -3750,20 +3620,19 @@
       <c r="J95" s="1" t="n"/>
       <c r="K95" s="1" t="n"/>
       <c r="L95" s="1" t="n"/>
-      <c r="M95" s="1" t="n"/>
-      <c r="N95" s="1" t="n">
-        <v>6</v>
+      <c r="M95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N95" t="n">
+        <v>164</v>
       </c>
       <c r="O95" t="n">
-        <v>164</v>
+        <v>57.74647887323944</v>
       </c>
       <c r="P95" t="n">
-        <v>57.74647887323944</v>
+        <v>284</v>
       </c>
       <c r="Q95" t="n">
-        <v>284</v>
-      </c>
-      <c r="R95" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3791,7 +3660,7 @@
         <v>1.60145185185914</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>-1.785965014732456</v>
+        <v>-1.693132170805148</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>5</v>
@@ -3806,24 +3675,21 @@
         <v>1</v>
       </c>
       <c r="L96" s="1" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M96" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N96" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6</v>
       </c>
       <c r="O96" t="n">
-        <v>6</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="P96" t="n">
-        <v>10.3448275862069</v>
+        <v>6</v>
       </c>
       <c r="Q96" t="n">
-        <v>6</v>
-      </c>
-      <c r="R96" t="n">
         <v>10.3448275862069</v>
       </c>
     </row>
@@ -3840,10 +3706,12 @@
       <c r="J97" s="1" t="n"/>
       <c r="K97" s="1" t="n"/>
       <c r="L97" s="1" t="n"/>
-      <c r="M97" s="1" t="n"/>
-      <c r="N97" s="1" t="n">
+      <c r="M97" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
       <c r="O97" t="n">
         <v>0</v>
       </c>
@@ -3851,9 +3719,6 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3870,20 +3735,19 @@
       <c r="J98" s="1" t="n"/>
       <c r="K98" s="1" t="n"/>
       <c r="L98" s="1" t="n"/>
-      <c r="M98" s="1" t="n"/>
-      <c r="N98" s="1" t="n">
-        <v>3</v>
+      <c r="M98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
       </c>
       <c r="O98" t="n">
-        <v>4</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="P98" t="n">
-        <v>6.896551724137931</v>
+        <v>10</v>
       </c>
       <c r="Q98" t="n">
-        <v>10</v>
-      </c>
-      <c r="R98" t="n">
         <v>17.24137931034483</v>
       </c>
     </row>
@@ -3900,20 +3764,19 @@
       <c r="J99" s="1" t="n"/>
       <c r="K99" s="1" t="n"/>
       <c r="L99" s="1" t="n"/>
-      <c r="M99" s="1" t="n"/>
-      <c r="N99" s="1" t="n">
+      <c r="M99" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="P99" t="n">
-        <v>3.448275862068965</v>
+        <v>12</v>
       </c>
       <c r="Q99" t="n">
-        <v>12</v>
-      </c>
-      <c r="R99" t="n">
         <v>20.68965517241379</v>
       </c>
     </row>
@@ -3930,20 +3793,19 @@
       <c r="J100" s="1" t="n"/>
       <c r="K100" s="1" t="n"/>
       <c r="L100" s="1" t="n"/>
-      <c r="M100" s="1" t="n"/>
-      <c r="N100" s="1" t="n">
+      <c r="M100" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N100" t="n">
+        <v>10</v>
+      </c>
       <c r="O100" t="n">
-        <v>10</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="P100" t="n">
-        <v>17.24137931034483</v>
+        <v>22</v>
       </c>
       <c r="Q100" t="n">
-        <v>22</v>
-      </c>
-      <c r="R100" t="n">
         <v>37.93103448275862</v>
       </c>
     </row>
@@ -3960,20 +3822,19 @@
       <c r="J101" s="1" t="n"/>
       <c r="K101" s="1" t="n"/>
       <c r="L101" s="1" t="n"/>
-      <c r="M101" s="1" t="n"/>
-      <c r="N101" s="1" t="n">
-        <v>6</v>
+      <c r="M101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N101" t="n">
+        <v>36</v>
       </c>
       <c r="O101" t="n">
-        <v>36</v>
+        <v>62.06896551724138</v>
       </c>
       <c r="P101" t="n">
-        <v>62.06896551724138</v>
+        <v>58</v>
       </c>
       <c r="Q101" t="n">
-        <v>58</v>
-      </c>
-      <c r="R101" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3997,7 +3858,7 @@
         <v>-0.9241373569198759</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>-1.15353593844766</v>
+        <v>-0.7061128376768631</v>
       </c>
       <c r="H102" s="1" t="n">
         <v>4</v>
@@ -4012,13 +3873,13 @@
         <v>2</v>
       </c>
       <c r="L102" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M102" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N102" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -4027,9 +3888,6 @@
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4046,10 +3904,12 @@
       <c r="J103" s="1" t="n"/>
       <c r="K103" s="1" t="n"/>
       <c r="L103" s="1" t="n"/>
-      <c r="M103" s="1" t="n"/>
-      <c r="N103" s="1" t="n">
+      <c r="M103" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
       <c r="O103" t="n">
         <v>0</v>
       </c>
@@ -4057,9 +3917,6 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4076,20 +3933,19 @@
       <c r="J104" s="1" t="n"/>
       <c r="K104" s="1" t="n"/>
       <c r="L104" s="1" t="n"/>
-      <c r="M104" s="1" t="n"/>
-      <c r="N104" s="1" t="n">
-        <v>3</v>
+      <c r="M104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>1</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="P104" t="n">
-        <v>8.333333333333332</v>
+        <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
-      </c>
-      <c r="R104" t="n">
         <v>8.333333333333332</v>
       </c>
     </row>
@@ -4106,20 +3962,19 @@
       <c r="J105" s="1" t="n"/>
       <c r="K105" s="1" t="n"/>
       <c r="L105" s="1" t="n"/>
-      <c r="M105" s="1" t="n"/>
-      <c r="N105" s="1" t="n">
+      <c r="M105" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
       <c r="O105" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="P105" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Q105" t="n">
-        <v>4</v>
-      </c>
-      <c r="R105" t="n">
         <v>33.33333333333333</v>
       </c>
     </row>
@@ -4136,20 +3991,19 @@
       <c r="J106" s="1" t="n"/>
       <c r="K106" s="1" t="n"/>
       <c r="L106" s="1" t="n"/>
-      <c r="M106" s="1" t="n"/>
-      <c r="N106" s="1" t="n">
+      <c r="M106" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="P106" t="n">
-        <v>16.66666666666666</v>
+        <v>6</v>
       </c>
       <c r="Q106" t="n">
-        <v>6</v>
-      </c>
-      <c r="R106" t="n">
         <v>49.99999999999999</v>
       </c>
     </row>
@@ -4166,20 +4020,19 @@
       <c r="J107" s="1" t="n"/>
       <c r="K107" s="1" t="n"/>
       <c r="L107" s="1" t="n"/>
-      <c r="M107" s="1" t="n"/>
-      <c r="N107" s="1" t="n">
+      <c r="M107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N107" t="n">
         <v>6</v>
       </c>
       <c r="O107" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="P107" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Q107" t="n">
-        <v>12</v>
-      </c>
-      <c r="R107" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4207,7 +4060,7 @@
         <v>3.288271778038738</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>-1.737348335805541</v>
+        <v>-1.96317199118827</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>5</v>
@@ -4222,24 +4075,21 @@
         <v>1</v>
       </c>
       <c r="L108" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M108" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N108" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>6</v>
       </c>
       <c r="O108" t="n">
-        <v>6</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="P108" t="n">
-        <v>5.88235294117647</v>
+        <v>6</v>
       </c>
       <c r="Q108" t="n">
-        <v>6</v>
-      </c>
-      <c r="R108" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
@@ -4256,10 +4106,12 @@
       <c r="J109" s="1" t="n"/>
       <c r="K109" s="1" t="n"/>
       <c r="L109" s="1" t="n"/>
-      <c r="M109" s="1" t="n"/>
-      <c r="N109" s="1" t="n">
+      <c r="M109" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
       <c r="O109" t="n">
         <v>0</v>
       </c>
@@ -4267,9 +4119,6 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
-      </c>
-      <c r="R109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4286,20 +4135,19 @@
       <c r="J110" s="1" t="n"/>
       <c r="K110" s="1" t="n"/>
       <c r="L110" s="1" t="n"/>
-      <c r="M110" s="1" t="n"/>
-      <c r="N110" s="1" t="n">
-        <v>3</v>
+      <c r="M110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
       </c>
       <c r="O110" t="n">
-        <v>4</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="P110" t="n">
-        <v>3.92156862745098</v>
+        <v>10</v>
       </c>
       <c r="Q110" t="n">
-        <v>10</v>
-      </c>
-      <c r="R110" t="n">
         <v>9.80392156862745</v>
       </c>
     </row>
@@ -4316,20 +4164,19 @@
       <c r="J111" s="1" t="n"/>
       <c r="K111" s="1" t="n"/>
       <c r="L111" s="1" t="n"/>
-      <c r="M111" s="1" t="n"/>
-      <c r="N111" s="1" t="n">
+      <c r="M111" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N111" t="n">
+        <v>12</v>
+      </c>
       <c r="O111" t="n">
-        <v>12</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="P111" t="n">
-        <v>11.76470588235294</v>
+        <v>22</v>
       </c>
       <c r="Q111" t="n">
-        <v>22</v>
-      </c>
-      <c r="R111" t="n">
         <v>21.56862745098039</v>
       </c>
     </row>
@@ -4346,20 +4193,19 @@
       <c r="J112" s="1" t="n"/>
       <c r="K112" s="1" t="n"/>
       <c r="L112" s="1" t="n"/>
-      <c r="M112" s="1" t="n"/>
-      <c r="N112" s="1" t="n">
+      <c r="M112" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N112" t="n">
+        <v>14</v>
+      </c>
       <c r="O112" t="n">
-        <v>14</v>
+        <v>13.72549019607843</v>
       </c>
       <c r="P112" t="n">
-        <v>13.72549019607843</v>
+        <v>36</v>
       </c>
       <c r="Q112" t="n">
-        <v>36</v>
-      </c>
-      <c r="R112" t="n">
         <v>35.29411764705883</v>
       </c>
     </row>
@@ -4376,20 +4222,19 @@
       <c r="J113" s="1" t="n"/>
       <c r="K113" s="1" t="n"/>
       <c r="L113" s="1" t="n"/>
-      <c r="M113" s="1" t="n"/>
-      <c r="N113" s="1" t="n">
-        <v>6</v>
+      <c r="M113" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N113" t="n">
+        <v>66</v>
       </c>
       <c r="O113" t="n">
-        <v>66</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="P113" t="n">
-        <v>64.70588235294117</v>
+        <v>102</v>
       </c>
       <c r="Q113" t="n">
-        <v>102</v>
-      </c>
-      <c r="R113" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4413,7 +4258,7 @@
         <v>4.837807433457783</v>
       </c>
       <c r="G114" s="1" t="n">
-        <v>-1.127394980911643</v>
+        <v>-2.506894471179906</v>
       </c>
       <c r="H114" s="1" t="n">
         <v>6</v>
@@ -4428,13 +4273,13 @@
         <v>0</v>
       </c>
       <c r="L114" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M114" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N114" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -4443,9 +4288,6 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
-      </c>
-      <c r="R114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4462,10 +4304,12 @@
       <c r="J115" s="1" t="n"/>
       <c r="K115" s="1" t="n"/>
       <c r="L115" s="1" t="n"/>
-      <c r="M115" s="1" t="n"/>
-      <c r="N115" s="1" t="n">
+      <c r="M115" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
@@ -4473,9 +4317,6 @@
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4492,9 +4333,11 @@
       <c r="J116" s="1" t="n"/>
       <c r="K116" s="1" t="n"/>
       <c r="L116" s="1" t="n"/>
-      <c r="M116" s="1" t="n"/>
-      <c r="N116" s="1" t="n">
-        <v>3</v>
+      <c r="M116" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -4503,9 +4346,6 @@
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
-      </c>
-      <c r="R116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4522,20 +4362,19 @@
       <c r="J117" s="1" t="n"/>
       <c r="K117" s="1" t="n"/>
       <c r="L117" s="1" t="n"/>
-      <c r="M117" s="1" t="n"/>
-      <c r="N117" s="1" t="n">
+      <c r="M117" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
       <c r="O117" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="P117" t="n">
         <v>4</v>
       </c>
-      <c r="P117" t="n">
-        <v>9.090909090909092</v>
-      </c>
       <c r="Q117" t="n">
-        <v>4</v>
-      </c>
-      <c r="R117" t="n">
         <v>9.090909090909092</v>
       </c>
     </row>
@@ -4552,20 +4391,19 @@
       <c r="J118" s="1" t="n"/>
       <c r="K118" s="1" t="n"/>
       <c r="L118" s="1" t="n"/>
-      <c r="M118" s="1" t="n"/>
-      <c r="N118" s="1" t="n">
+      <c r="M118" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
       <c r="O118" t="n">
-        <v>2</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="P118" t="n">
-        <v>4.545454545454546</v>
+        <v>6</v>
       </c>
       <c r="Q118" t="n">
-        <v>6</v>
-      </c>
-      <c r="R118" t="n">
         <v>13.63636363636364</v>
       </c>
     </row>
@@ -4582,20 +4420,19 @@
       <c r="J119" s="1" t="n"/>
       <c r="K119" s="1" t="n"/>
       <c r="L119" s="1" t="n"/>
-      <c r="M119" s="1" t="n"/>
-      <c r="N119" s="1" t="n">
-        <v>6</v>
+      <c r="M119" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N119" t="n">
+        <v>38</v>
       </c>
       <c r="O119" t="n">
-        <v>38</v>
+        <v>86.36363636363636</v>
       </c>
       <c r="P119" t="n">
-        <v>86.36363636363636</v>
+        <v>44</v>
       </c>
       <c r="Q119" t="n">
-        <v>44</v>
-      </c>
-      <c r="R119" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4623,7 +4460,7 @@
         <v>11.85595955753712</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>-1.03430840335866</v>
+        <v>-3.359496488312545</v>
       </c>
       <c r="H120" s="1" t="n">
         <v>6</v>
@@ -4638,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="L120" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M120" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N120" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -4653,9 +4490,6 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,10 +4506,12 @@
       <c r="J121" s="1" t="n"/>
       <c r="K121" s="1" t="n"/>
       <c r="L121" s="1" t="n"/>
-      <c r="M121" s="1" t="n"/>
-      <c r="N121" s="1" t="n">
+      <c r="M121" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
       <c r="O121" t="n">
         <v>0</v>
       </c>
@@ -4683,9 +4519,6 @@
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
-      </c>
-      <c r="R121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4702,20 +4535,19 @@
       <c r="J122" s="1" t="n"/>
       <c r="K122" s="1" t="n"/>
       <c r="L122" s="1" t="n"/>
-      <c r="M122" s="1" t="n"/>
-      <c r="N122" s="1" t="n">
-        <v>3</v>
+      <c r="M122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
       </c>
       <c r="O122" t="n">
+        <v>1.652892561983471</v>
+      </c>
+      <c r="P122" t="n">
         <v>4</v>
       </c>
-      <c r="P122" t="n">
-        <v>1.652892561983471</v>
-      </c>
       <c r="Q122" t="n">
-        <v>4</v>
-      </c>
-      <c r="R122" t="n">
         <v>1.652892561983471</v>
       </c>
     </row>
@@ -4732,20 +4564,19 @@
       <c r="J123" s="1" t="n"/>
       <c r="K123" s="1" t="n"/>
       <c r="L123" s="1" t="n"/>
-      <c r="M123" s="1" t="n"/>
-      <c r="N123" s="1" t="n">
+      <c r="M123" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N123" t="n">
+        <v>6</v>
+      </c>
       <c r="O123" t="n">
-        <v>6</v>
+        <v>2.479338842975207</v>
       </c>
       <c r="P123" t="n">
-        <v>2.479338842975207</v>
+        <v>10</v>
       </c>
       <c r="Q123" t="n">
-        <v>10</v>
-      </c>
-      <c r="R123" t="n">
         <v>4.132231404958678</v>
       </c>
     </row>
@@ -4762,20 +4593,19 @@
       <c r="J124" s="1" t="n"/>
       <c r="K124" s="1" t="n"/>
       <c r="L124" s="1" t="n"/>
-      <c r="M124" s="1" t="n"/>
-      <c r="N124" s="1" t="n">
+      <c r="M124" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N124" t="n">
+        <v>22</v>
+      </c>
       <c r="O124" t="n">
-        <v>22</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="P124" t="n">
-        <v>9.090909090909092</v>
+        <v>32</v>
       </c>
       <c r="Q124" t="n">
-        <v>32</v>
-      </c>
-      <c r="R124" t="n">
         <v>13.22314049586777</v>
       </c>
     </row>
@@ -4792,20 +4622,19 @@
       <c r="J125" s="1" t="n"/>
       <c r="K125" s="1" t="n"/>
       <c r="L125" s="1" t="n"/>
-      <c r="M125" s="1" t="n"/>
-      <c r="N125" s="1" t="n">
-        <v>6</v>
+      <c r="M125" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N125" t="n">
+        <v>210</v>
       </c>
       <c r="O125" t="n">
-        <v>210</v>
+        <v>86.77685950413223</v>
       </c>
       <c r="P125" t="n">
-        <v>86.77685950413223</v>
+        <v>242</v>
       </c>
       <c r="Q125" t="n">
-        <v>242</v>
-      </c>
-      <c r="R125" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4829,7 +4658,7 @@
         <v>3.53610864377936</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>-0.2363841861117376</v>
+        <v>-2.057459330395446</v>
       </c>
       <c r="H126" s="1" t="n">
         <v>5</v>
@@ -4844,24 +4673,21 @@
         <v>1</v>
       </c>
       <c r="L126" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M126" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="N126" s="1" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
       </c>
       <c r="O126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P126" t="n">
         <v>2</v>
       </c>
-      <c r="P126" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Q126" t="n">
-        <v>2</v>
-      </c>
-      <c r="R126" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -4878,10 +4704,12 @@
       <c r="J127" s="1" t="n"/>
       <c r="K127" s="1" t="n"/>
       <c r="L127" s="1" t="n"/>
-      <c r="M127" s="1" t="n"/>
-      <c r="N127" s="1" t="n">
+      <c r="M127" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
       <c r="O127" t="n">
         <v>0</v>
       </c>
@@ -4889,9 +4717,6 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4908,9 +4733,11 @@
       <c r="J128" s="1" t="n"/>
       <c r="K128" s="1" t="n"/>
       <c r="L128" s="1" t="n"/>
-      <c r="M128" s="1" t="n"/>
-      <c r="N128" s="1" t="n">
-        <v>3</v>
+      <c r="M128" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
@@ -4919,9 +4746,6 @@
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
-      </c>
-      <c r="R128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4938,10 +4762,12 @@
       <c r="J129" s="1" t="n"/>
       <c r="K129" s="1" t="n"/>
       <c r="L129" s="1" t="n"/>
-      <c r="M129" s="1" t="n"/>
-      <c r="N129" s="1" t="n">
+      <c r="M129" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
       <c r="O129" t="n">
         <v>0</v>
       </c>
@@ -4949,9 +4775,6 @@
         <v>0</v>
       </c>
       <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4968,20 +4791,19 @@
       <c r="J130" s="1" t="n"/>
       <c r="K130" s="1" t="n"/>
       <c r="L130" s="1" t="n"/>
-      <c r="M130" s="1" t="n"/>
-      <c r="N130" s="1" t="n">
+      <c r="M130" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="N130" t="n">
+        <v>8</v>
+      </c>
       <c r="O130" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="P130" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="Q130" t="n">
-        <v>10</v>
-      </c>
-      <c r="R130" t="n">
         <v>62.5</v>
       </c>
     </row>
@@ -4998,25 +4820,24 @@
       <c r="J131" s="1" t="n"/>
       <c r="K131" s="1" t="n"/>
       <c r="L131" s="1" t="n"/>
-      <c r="M131" s="1" t="n"/>
-      <c r="N131" s="1" t="n">
+      <c r="M131" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N131" t="n">
         <v>6</v>
       </c>
       <c r="O131" t="n">
-        <v>6</v>
+        <v>37.5</v>
       </c>
       <c r="P131" t="n">
-        <v>37.5</v>
+        <v>16</v>
       </c>
       <c r="Q131" t="n">
-        <v>16</v>
-      </c>
-      <c r="R131" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="275">
+  <mergeCells count="253">
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="A26:A37"/>
@@ -5270,28 +5091,6 @@
     <mergeCell ref="L114:L119"/>
     <mergeCell ref="L120:L125"/>
     <mergeCell ref="L126:L131"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="M20:M25"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="M32:M37"/>
-    <mergeCell ref="M38:M43"/>
-    <mergeCell ref="M44:M49"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="M54:M59"/>
-    <mergeCell ref="M60:M65"/>
-    <mergeCell ref="M66:M71"/>
-    <mergeCell ref="M72:M77"/>
-    <mergeCell ref="M78:M83"/>
-    <mergeCell ref="M84:M89"/>
-    <mergeCell ref="M90:M95"/>
-    <mergeCell ref="M96:M101"/>
-    <mergeCell ref="M102:M107"/>
-    <mergeCell ref="M108:M113"/>
-    <mergeCell ref="M114:M119"/>
-    <mergeCell ref="M120:M125"/>
-    <mergeCell ref="M126:M131"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -5329,7 +5128,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Número de Valoraciones</t>
+          <t>Nº Valoraciones</t>
         </is>
       </c>
     </row>
